--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
@@ -16,9 +16,6 @@
     <sheet name="3M (2)" sheetId="25" r:id="rId7"/>
     <sheet name="ImmFra6M (2)" sheetId="26" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -647,22 +644,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -971,7 +952,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1039,8 +1020,8 @@
         <v>14</v>
       </c>
       <c r="D8" s="27" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1204,13 +1185,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_Futures3M.xml</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5780,13 +5761,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC1MRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_Futures1M.xml</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -10354,13 +10335,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -14925,13 +14906,13 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC6MRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_IMMFRA6M.xml</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -19022,13 +19003,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC1M-MxRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
-      </c>
-      <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" s="39" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -23598,13 +23579,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC3M-MxRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
-      </c>
-      <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" s="39" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -28171,13 +28152,13 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
-      </c>
-      <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" s="39" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="11"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Currency</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Hibor</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1019,9 +1022,8 @@
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1191,7 +1193,7 @@
       </c>
       <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_Futures3M.xml</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5767,7 +5769,7 @@
       </c>
       <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_Futures1M.xml</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -10341,7 +10343,7 @@
       </c>
       <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_Futures3M.xml</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -14912,7 +14914,7 @@
       </c>
       <c r="I2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_IMMFRA6M.xml</v>
+        <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -19007,9 +19009,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="J2" s="39" t="e">
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -23583,9 +23585,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="J2" s="39" t="e">
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -28156,9 +28158,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="I2" s="39" t="e">
+      <c r="I2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="J2" s="11"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Currency</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Hibor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1019,9 @@
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>26</v>
+      <c r="D8" s="27" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1188,12 +1186,12 @@
         <v>HKD_YCSTDRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5764,12 +5762,12 @@
         <v>HKD_YC1MRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -10338,12 +10336,12 @@
         <v>HKD_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -14909,12 +14907,12 @@
         <v>HKD_YC6MRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -19006,12 +19004,12 @@
         <v>HKD_YC1M-MxRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -23582,12 +23580,12 @@
         <v>HKD_YC3M-MxRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -28155,12 +28153,12 @@
         <v>HKD_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Futures.xlsx
@@ -952,7 +952,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D8" s="27" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1185,13 +1185,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="39" t="e">
+      <c r="I2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX3#0002</v>
       </c>
       <c r="J3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I4" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ3#0002</v>
       </c>
       <c r="J4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I5" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF4#0002</v>
       </c>
       <c r="J5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I6" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG4#0002</v>
       </c>
       <c r="J6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I7" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH4#0002</v>
       </c>
       <c r="J7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I8" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ4#0002</v>
       </c>
       <c r="J8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I9" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK4#0002</v>
       </c>
       <c r="J9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="I10" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM4#0002</v>
       </c>
       <c r="J10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I11" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN4#0002</v>
       </c>
       <c r="J11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I12" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ4#0002</v>
       </c>
       <c r="J12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I13" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU4#0002</v>
       </c>
       <c r="J13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="I14" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV4#0002</v>
       </c>
       <c r="J14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I15" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX4#0002</v>
       </c>
       <c r="J15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="I16" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ4#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ4#0002</v>
       </c>
       <c r="J16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="I17" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF5#0002</v>
       </c>
       <c r="J17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I18" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG5#0002</v>
       </c>
       <c r="J18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I19" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH5#0002</v>
       </c>
       <c r="J19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="I20" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ5#0002</v>
       </c>
       <c r="J20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="I21" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK5#0002</v>
       </c>
       <c r="J21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I22" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM5#0002</v>
       </c>
       <c r="J22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="I23" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN5#0002</v>
       </c>
       <c r="J23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="I24" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ5#0002</v>
       </c>
       <c r="J24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I25" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU5#0002</v>
       </c>
       <c r="J25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="I26" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV5#0002</v>
       </c>
       <c r="J26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I27" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX5#0002</v>
       </c>
       <c r="J27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="I28" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ5#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ5#0002</v>
       </c>
       <c r="J28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="I29" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF6#0002</v>
       </c>
       <c r="J29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="I30" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG6#0002</v>
       </c>
       <c r="J30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="I31" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH6#0002</v>
       </c>
       <c r="J31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="I32" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ6#0002</v>
       </c>
       <c r="J32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="I33" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK6#0002</v>
       </c>
       <c r="J33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="I34" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM6#0002</v>
       </c>
       <c r="J34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="I35" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN6#0002</v>
       </c>
       <c r="J35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="I36" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ6#0002</v>
       </c>
       <c r="J36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I37" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU6#0002</v>
       </c>
       <c r="J37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="I38" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV6#0002</v>
       </c>
       <c r="J38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="I39" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX6#0002</v>
       </c>
       <c r="J39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I40" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ6#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ6#0002</v>
       </c>
       <c r="J40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="I41" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF7#0002</v>
       </c>
       <c r="J41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="I42" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG7#0002</v>
       </c>
       <c r="J42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="I43" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH7#0002</v>
       </c>
       <c r="J43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="I44" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ7#0002</v>
       </c>
       <c r="J44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I45" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK7#0002</v>
       </c>
       <c r="J45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I46" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM7#0002</v>
       </c>
       <c r="J46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I47" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN7#0002</v>
       </c>
       <c r="J47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="I48" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ7#0002</v>
       </c>
       <c r="J48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="I49" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU7#0002</v>
       </c>
       <c r="J49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I50" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV7#0002</v>
       </c>
       <c r="J50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="I51" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX7#0002</v>
       </c>
       <c r="J51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="I52" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ7#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ7#0002</v>
       </c>
       <c r="J52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="I53" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF8#0002</v>
       </c>
       <c r="J53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="I54" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG8#0002</v>
       </c>
       <c r="J54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="I55" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH8#0002</v>
       </c>
       <c r="J55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I56" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ8#0002</v>
       </c>
       <c r="J56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="I57" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK8#0002</v>
       </c>
       <c r="J57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="I58" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM8#0002</v>
       </c>
       <c r="J58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="I59" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN8#0002</v>
       </c>
       <c r="J59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="I60" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ8#0002</v>
       </c>
       <c r="J60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="I61" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU8#0002</v>
       </c>
       <c r="J61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="I62" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV8#0002</v>
       </c>
       <c r="J62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="I63" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX8#0002</v>
       </c>
       <c r="J63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="I64" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ8#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ8#0002</v>
       </c>
       <c r="J64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="I65" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF9#0002</v>
       </c>
       <c r="J65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="I66" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG9#0002</v>
       </c>
       <c r="J66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="I67" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH9#0002</v>
       </c>
       <c r="J67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="I68" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ9#0002</v>
       </c>
       <c r="J68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="I69" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK9#0002</v>
       </c>
       <c r="J69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I70" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM9#0002</v>
       </c>
       <c r="J70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="I71" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN9#0002</v>
       </c>
       <c r="J71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="I72" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ9#0002</v>
       </c>
       <c r="J72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="I73" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU9#0002</v>
       </c>
       <c r="J73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="I74" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV9#0002</v>
       </c>
       <c r="J74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="I75" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX9#0002</v>
       </c>
       <c r="J75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="I76" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ9#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ9#0002</v>
       </c>
       <c r="J76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="I77" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF0#0002</v>
       </c>
       <c r="J77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="I78" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG0#0002</v>
       </c>
       <c r="J78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="I79" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH0#0002</v>
       </c>
       <c r="J79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="I80" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ0#0002</v>
       </c>
       <c r="J80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="I81" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK0#0002</v>
       </c>
       <c r="J81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="I82" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM0#0002</v>
       </c>
       <c r="J82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I83" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN0#0002</v>
       </c>
       <c r="J83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I84" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ0#0002</v>
       </c>
       <c r="J84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="I85" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU0#0002</v>
       </c>
       <c r="J85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="I86" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV0#0002</v>
       </c>
       <c r="J86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="I87" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX0#0002</v>
       </c>
       <c r="J87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="I88" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ0#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ0#0002</v>
       </c>
       <c r="J88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="I89" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF1#0002</v>
       </c>
       <c r="J89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="I90" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG1#0002</v>
       </c>
       <c r="J90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I91" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH1#0002</v>
       </c>
       <c r="J91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="I92" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ1#0002</v>
       </c>
       <c r="J92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="I93" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK1#0002</v>
       </c>
       <c r="J93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I94" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM1#0002</v>
       </c>
       <c r="J94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="I95" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN1#0002</v>
       </c>
       <c r="J95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="I96" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ1#0002</v>
       </c>
       <c r="J96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I97" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU1#0002</v>
       </c>
       <c r="J97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I98" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV1#0002</v>
       </c>
       <c r="J98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="I99" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX1#0002</v>
       </c>
       <c r="J99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="I100" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ1#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ1#0002</v>
       </c>
       <c r="J100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I101" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF2#0002</v>
       </c>
       <c r="J101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="I102" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG2#0002</v>
       </c>
       <c r="J102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="I103" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH2#0002</v>
       </c>
       <c r="J103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="I104" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ2#0002</v>
       </c>
       <c r="J104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="I105" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK2#0002</v>
       </c>
       <c r="J105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I105)</f>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="I106" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM2#0002</v>
       </c>
       <c r="J106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I106)</f>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="I107" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN2#0002</v>
       </c>
       <c r="J107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I107)</f>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="I108" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ2#0002</v>
       </c>
       <c r="J108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I108)</f>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="I109" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU2#0002</v>
       </c>
       <c r="J109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I109)</f>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="I110" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV2#0002</v>
       </c>
       <c r="J110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I110)</f>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="I111" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MX2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MX2#0002</v>
       </c>
       <c r="J111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I111)</f>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I112" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MZ2#0001</v>
+        <v>HKD_YCSTDRH_FUT3MZ2#0002</v>
       </c>
       <c r="J112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I112)</f>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I113" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MF3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MF3#0002</v>
       </c>
       <c r="J113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I113)</f>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="I114" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MG3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MG3#0002</v>
       </c>
       <c r="J114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I114)</f>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="I115" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MH3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MH3#0002</v>
       </c>
       <c r="J115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I115)</f>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="I116" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MJ3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MJ3#0002</v>
       </c>
       <c r="J116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I116)</f>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="I117" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MK3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MK3#0002</v>
       </c>
       <c r="J117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I117)</f>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="I118" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MM3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MM3#0002</v>
       </c>
       <c r="J118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I118)</f>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="I119" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MN3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MN3#0002</v>
       </c>
       <c r="J119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I119)</f>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="I120" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MQ3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MQ3#0002</v>
       </c>
       <c r="J120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I120)</f>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="I121" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MU3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MU3#0002</v>
       </c>
       <c r="J121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I121)</f>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="I122" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_FUT3MV3#0001</v>
+        <v>HKD_YCSTDRH_FUT3MV3#0002</v>
       </c>
       <c r="J122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I122)</f>
@@ -5761,13 +5761,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC1MRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="39" t="e">
+      <c r="I2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="I3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX3#0001</v>
+        <v>HKD_YC1MRH_FUT1MX3#0002</v>
       </c>
       <c r="J3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="I4" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ3#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ3#0002</v>
       </c>
       <c r="J4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I5" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF4#0001</v>
+        <v>HKD_YC1MRH_FUT1MF4#0002</v>
       </c>
       <c r="J5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="I6" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG4#0001</v>
+        <v>HKD_YC1MRH_FUT1MG4#0002</v>
       </c>
       <c r="J6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="I7" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH4#0001</v>
+        <v>HKD_YC1MRH_FUT1MH4#0002</v>
       </c>
       <c r="J7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="I8" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ4#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ4#0002</v>
       </c>
       <c r="J8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="I9" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK4#0001</v>
+        <v>HKD_YC1MRH_FUT1MK4#0002</v>
       </c>
       <c r="J9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="I10" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM4#0001</v>
+        <v>HKD_YC1MRH_FUT1MM4#0002</v>
       </c>
       <c r="J10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I11" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN4#0001</v>
+        <v>HKD_YC1MRH_FUT1MN4#0002</v>
       </c>
       <c r="J11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="I12" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ4#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ4#0002</v>
       </c>
       <c r="J12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="I13" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU4#0001</v>
+        <v>HKD_YC1MRH_FUT1MU4#0002</v>
       </c>
       <c r="J13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="I14" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV4#0001</v>
+        <v>HKD_YC1MRH_FUT1MV4#0002</v>
       </c>
       <c r="J14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I15" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX4#0001</v>
+        <v>HKD_YC1MRH_FUT1MX4#0002</v>
       </c>
       <c r="J15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="I16" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ4#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ4#0002</v>
       </c>
       <c r="J16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="I17" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF5#0001</v>
+        <v>HKD_YC1MRH_FUT1MF5#0002</v>
       </c>
       <c r="J17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="I18" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG5#0001</v>
+        <v>HKD_YC1MRH_FUT1MG5#0002</v>
       </c>
       <c r="J18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I19" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH5#0001</v>
+        <v>HKD_YC1MRH_FUT1MH5#0002</v>
       </c>
       <c r="J19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I20" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ5#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ5#0002</v>
       </c>
       <c r="J20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="I21" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK5#0001</v>
+        <v>HKD_YC1MRH_FUT1MK5#0002</v>
       </c>
       <c r="J21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="I22" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM5#0001</v>
+        <v>HKD_YC1MRH_FUT1MM5#0002</v>
       </c>
       <c r="J22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="I23" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN5#0001</v>
+        <v>HKD_YC1MRH_FUT1MN5#0002</v>
       </c>
       <c r="J23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="I24" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ5#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ5#0002</v>
       </c>
       <c r="J24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="I25" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU5#0001</v>
+        <v>HKD_YC1MRH_FUT1MU5#0002</v>
       </c>
       <c r="J25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="I26" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV5#0001</v>
+        <v>HKD_YC1MRH_FUT1MV5#0002</v>
       </c>
       <c r="J26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="I27" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX5#0001</v>
+        <v>HKD_YC1MRH_FUT1MX5#0002</v>
       </c>
       <c r="J27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="I28" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ5#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ5#0002</v>
       </c>
       <c r="J28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I29" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF6#0001</v>
+        <v>HKD_YC1MRH_FUT1MF6#0002</v>
       </c>
       <c r="J29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="I30" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG6#0001</v>
+        <v>HKD_YC1MRH_FUT1MG6#0002</v>
       </c>
       <c r="J30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="I31" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH6#0001</v>
+        <v>HKD_YC1MRH_FUT1MH6#0002</v>
       </c>
       <c r="J31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="I32" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ6#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ6#0002</v>
       </c>
       <c r="J32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="I33" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK6#0001</v>
+        <v>HKD_YC1MRH_FUT1MK6#0002</v>
       </c>
       <c r="J33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="I34" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM6#0001</v>
+        <v>HKD_YC1MRH_FUT1MM6#0002</v>
       </c>
       <c r="J34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="I35" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN6#0001</v>
+        <v>HKD_YC1MRH_FUT1MN6#0002</v>
       </c>
       <c r="J35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="I36" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ6#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ6#0002</v>
       </c>
       <c r="J36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="I37" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU6#0001</v>
+        <v>HKD_YC1MRH_FUT1MU6#0002</v>
       </c>
       <c r="J37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I38" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV6#0001</v>
+        <v>HKD_YC1MRH_FUT1MV6#0002</v>
       </c>
       <c r="J38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I39" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX6#0001</v>
+        <v>HKD_YC1MRH_FUT1MX6#0002</v>
       </c>
       <c r="J39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="I40" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ6#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ6#0002</v>
       </c>
       <c r="J40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="I41" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF7#0001</v>
+        <v>HKD_YC1MRH_FUT1MF7#0002</v>
       </c>
       <c r="J41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="I42" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG7#0001</v>
+        <v>HKD_YC1MRH_FUT1MG7#0002</v>
       </c>
       <c r="J42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="I43" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH7#0001</v>
+        <v>HKD_YC1MRH_FUT1MH7#0002</v>
       </c>
       <c r="J43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="I44" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ7#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ7#0002</v>
       </c>
       <c r="J44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="I45" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK7#0001</v>
+        <v>HKD_YC1MRH_FUT1MK7#0002</v>
       </c>
       <c r="J45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="I46" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM7#0001</v>
+        <v>HKD_YC1MRH_FUT1MM7#0002</v>
       </c>
       <c r="J46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="I47" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN7#0001</v>
+        <v>HKD_YC1MRH_FUT1MN7#0002</v>
       </c>
       <c r="J47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="I48" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ7#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ7#0002</v>
       </c>
       <c r="J48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="I49" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU7#0001</v>
+        <v>HKD_YC1MRH_FUT1MU7#0002</v>
       </c>
       <c r="J49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="I50" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV7#0001</v>
+        <v>HKD_YC1MRH_FUT1MV7#0002</v>
       </c>
       <c r="J50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="I51" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX7#0001</v>
+        <v>HKD_YC1MRH_FUT1MX7#0002</v>
       </c>
       <c r="J51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="I52" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ7#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ7#0002</v>
       </c>
       <c r="J52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="I53" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF8#0001</v>
+        <v>HKD_YC1MRH_FUT1MF8#0002</v>
       </c>
       <c r="J53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="I54" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG8#0001</v>
+        <v>HKD_YC1MRH_FUT1MG8#0002</v>
       </c>
       <c r="J54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="I55" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH8#0001</v>
+        <v>HKD_YC1MRH_FUT1MH8#0002</v>
       </c>
       <c r="J55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="I56" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ8#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ8#0002</v>
       </c>
       <c r="J56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="I57" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK8#0001</v>
+        <v>HKD_YC1MRH_FUT1MK8#0002</v>
       </c>
       <c r="J57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="I58" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM8#0001</v>
+        <v>HKD_YC1MRH_FUT1MM8#0002</v>
       </c>
       <c r="J58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="I59" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN8#0001</v>
+        <v>HKD_YC1MRH_FUT1MN8#0002</v>
       </c>
       <c r="J59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="I60" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ8#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ8#0002</v>
       </c>
       <c r="J60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="I61" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU8#0001</v>
+        <v>HKD_YC1MRH_FUT1MU8#0002</v>
       </c>
       <c r="J61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="I62" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV8#0001</v>
+        <v>HKD_YC1MRH_FUT1MV8#0002</v>
       </c>
       <c r="J62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="I63" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX8#0001</v>
+        <v>HKD_YC1MRH_FUT1MX8#0002</v>
       </c>
       <c r="J63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="I64" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ8#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ8#0002</v>
       </c>
       <c r="J64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="I65" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF9#0001</v>
+        <v>HKD_YC1MRH_FUT1MF9#0002</v>
       </c>
       <c r="J65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="I66" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG9#0001</v>
+        <v>HKD_YC1MRH_FUT1MG9#0002</v>
       </c>
       <c r="J66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="I67" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH9#0001</v>
+        <v>HKD_YC1MRH_FUT1MH9#0002</v>
       </c>
       <c r="J67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="I68" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ9#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ9#0002</v>
       </c>
       <c r="J68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="I69" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK9#0001</v>
+        <v>HKD_YC1MRH_FUT1MK9#0002</v>
       </c>
       <c r="J69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="I70" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM9#0001</v>
+        <v>HKD_YC1MRH_FUT1MM9#0002</v>
       </c>
       <c r="J70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="I71" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN9#0001</v>
+        <v>HKD_YC1MRH_FUT1MN9#0002</v>
       </c>
       <c r="J71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I72" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ9#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ9#0002</v>
       </c>
       <c r="J72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="I73" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU9#0001</v>
+        <v>HKD_YC1MRH_FUT1MU9#0002</v>
       </c>
       <c r="J73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I74" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV9#0001</v>
+        <v>HKD_YC1MRH_FUT1MV9#0002</v>
       </c>
       <c r="J74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="I75" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX9#0001</v>
+        <v>HKD_YC1MRH_FUT1MX9#0002</v>
       </c>
       <c r="J75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="I76" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ9#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ9#0002</v>
       </c>
       <c r="J76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="I77" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF0#0001</v>
+        <v>HKD_YC1MRH_FUT1MF0#0002</v>
       </c>
       <c r="J77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I78" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG0#0001</v>
+        <v>HKD_YC1MRH_FUT1MG0#0002</v>
       </c>
       <c r="J78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="I79" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH0#0001</v>
+        <v>HKD_YC1MRH_FUT1MH0#0002</v>
       </c>
       <c r="J79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="I80" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ0#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ0#0002</v>
       </c>
       <c r="J80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="I81" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK0#0001</v>
+        <v>HKD_YC1MRH_FUT1MK0#0002</v>
       </c>
       <c r="J81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I82" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM0#0001</v>
+        <v>HKD_YC1MRH_FUT1MM0#0002</v>
       </c>
       <c r="J82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="I83" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN0#0001</v>
+        <v>HKD_YC1MRH_FUT1MN0#0002</v>
       </c>
       <c r="J83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="I84" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ0#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ0#0002</v>
       </c>
       <c r="J84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="I85" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU0#0001</v>
+        <v>HKD_YC1MRH_FUT1MU0#0002</v>
       </c>
       <c r="J85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="I86" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV0#0001</v>
+        <v>HKD_YC1MRH_FUT1MV0#0002</v>
       </c>
       <c r="J86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="I87" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX0#0001</v>
+        <v>HKD_YC1MRH_FUT1MX0#0002</v>
       </c>
       <c r="J87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="I88" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ0#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ0#0002</v>
       </c>
       <c r="J88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="I89" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF1#0001</v>
+        <v>HKD_YC1MRH_FUT1MF1#0002</v>
       </c>
       <c r="J89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="I90" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG1#0001</v>
+        <v>HKD_YC1MRH_FUT1MG1#0002</v>
       </c>
       <c r="J90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="I91" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH1#0001</v>
+        <v>HKD_YC1MRH_FUT1MH1#0002</v>
       </c>
       <c r="J91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="I92" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ1#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ1#0002</v>
       </c>
       <c r="J92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="I93" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK1#0001</v>
+        <v>HKD_YC1MRH_FUT1MK1#0002</v>
       </c>
       <c r="J93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="I94" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM1#0001</v>
+        <v>HKD_YC1MRH_FUT1MM1#0002</v>
       </c>
       <c r="J94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="I95" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN1#0001</v>
+        <v>HKD_YC1MRH_FUT1MN1#0002</v>
       </c>
       <c r="J95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -9279,7 +9279,7 @@
       </c>
       <c r="I96" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ1#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ1#0002</v>
       </c>
       <c r="J96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="I97" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU1#0001</v>
+        <v>HKD_YC1MRH_FUT1MU1#0002</v>
       </c>
       <c r="J97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="I98" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV1#0001</v>
+        <v>HKD_YC1MRH_FUT1MV1#0002</v>
       </c>
       <c r="J98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="I99" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX1#0001</v>
+        <v>HKD_YC1MRH_FUT1MX1#0002</v>
       </c>
       <c r="J99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="I100" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ1#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ1#0002</v>
       </c>
       <c r="J100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="I101" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF2#0001</v>
+        <v>HKD_YC1MRH_FUT1MF2#0002</v>
       </c>
       <c r="J101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="I102" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG2#0001</v>
+        <v>HKD_YC1MRH_FUT1MG2#0002</v>
       </c>
       <c r="J102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="I103" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH2#0001</v>
+        <v>HKD_YC1MRH_FUT1MH2#0002</v>
       </c>
       <c r="J103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="I104" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ2#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ2#0002</v>
       </c>
       <c r="J104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="I105" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK2#0001</v>
+        <v>HKD_YC1MRH_FUT1MK2#0002</v>
       </c>
       <c r="J105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I105)</f>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="I106" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM2#0001</v>
+        <v>HKD_YC1MRH_FUT1MM2#0002</v>
       </c>
       <c r="J106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I106)</f>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="I107" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN2#0001</v>
+        <v>HKD_YC1MRH_FUT1MN2#0002</v>
       </c>
       <c r="J107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I107)</f>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="I108" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ2#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ2#0002</v>
       </c>
       <c r="J108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I108)</f>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="I109" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU2#0001</v>
+        <v>HKD_YC1MRH_FUT1MU2#0002</v>
       </c>
       <c r="J109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I109)</f>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="I110" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV2#0001</v>
+        <v>HKD_YC1MRH_FUT1MV2#0002</v>
       </c>
       <c r="J110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I110)</f>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="I111" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MX2#0001</v>
+        <v>HKD_YC1MRH_FUT1MX2#0002</v>
       </c>
       <c r="J111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I111)</f>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="I112" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MZ2#0001</v>
+        <v>HKD_YC1MRH_FUT1MZ2#0002</v>
       </c>
       <c r="J112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I112)</f>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="I113" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MF3#0001</v>
+        <v>HKD_YC1MRH_FUT1MF3#0002</v>
       </c>
       <c r="J113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I113)</f>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="I114" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MG3#0001</v>
+        <v>HKD_YC1MRH_FUT1MG3#0002</v>
       </c>
       <c r="J114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I114)</f>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="I115" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MH3#0001</v>
+        <v>HKD_YC1MRH_FUT1MH3#0002</v>
       </c>
       <c r="J115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I115)</f>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="I116" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MJ3#0001</v>
+        <v>HKD_YC1MRH_FUT1MJ3#0002</v>
       </c>
       <c r="J116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I116)</f>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="I117" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MK3#0001</v>
+        <v>HKD_YC1MRH_FUT1MK3#0002</v>
       </c>
       <c r="J117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I117)</f>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I118" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MM3#0001</v>
+        <v>HKD_YC1MRH_FUT1MM3#0002</v>
       </c>
       <c r="J118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I118)</f>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="I119" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MN3#0001</v>
+        <v>HKD_YC1MRH_FUT1MN3#0002</v>
       </c>
       <c r="J119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I119)</f>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="I120" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MQ3#0001</v>
+        <v>HKD_YC1MRH_FUT1MQ3#0002</v>
       </c>
       <c r="J120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I120)</f>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="I121" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MU3#0001</v>
+        <v>HKD_YC1MRH_FUT1MU3#0002</v>
       </c>
       <c r="J121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I121)</f>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I122" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_FUT1MV3#0001</v>
+        <v>HKD_YC1MRH_FUT1MV3#0002</v>
       </c>
       <c r="J122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I122)</f>
@@ -10335,13 +10335,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="39" t="e">
+      <c r="I2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="I3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX3#0001</v>
+        <v>HKD_YC3MRH_FUT3MX3#0002</v>
       </c>
       <c r="J3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="I4" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ3#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ3#0002</v>
       </c>
       <c r="J4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="I5" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF4#0001</v>
+        <v>HKD_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="J5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I6" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG4#0001</v>
+        <v>HKD_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="J6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="I7" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH4#0001</v>
+        <v>HKD_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="J7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="I8" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ4#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="J8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="I9" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK4#0001</v>
+        <v>HKD_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="J9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="I10" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM4#0001</v>
+        <v>HKD_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="I11" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN4#0001</v>
+        <v>HKD_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="J11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I12" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ4#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="J12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="I13" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU4#0001</v>
+        <v>HKD_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="I14" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV4#0001</v>
+        <v>HKD_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="J14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="I15" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX4#0001</v>
+        <v>HKD_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="J15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I16" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ4#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="J16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="I17" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF5#0001</v>
+        <v>HKD_YC3MRH_FUT3MF5#0002</v>
       </c>
       <c r="J17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="I18" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG5#0001</v>
+        <v>HKD_YC3MRH_FUT3MG5#0002</v>
       </c>
       <c r="J18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="I19" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH5#0001</v>
+        <v>HKD_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="J19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="I20" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ5#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ5#0002</v>
       </c>
       <c r="J20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="I21" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK5#0001</v>
+        <v>HKD_YC3MRH_FUT3MK5#0002</v>
       </c>
       <c r="J21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="I22" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM5#0001</v>
+        <v>HKD_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="J22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="I23" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN5#0001</v>
+        <v>HKD_YC3MRH_FUT3MN5#0002</v>
       </c>
       <c r="J23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="I24" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ5#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ5#0002</v>
       </c>
       <c r="J24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="I25" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU5#0001</v>
+        <v>HKD_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="J25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="I26" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV5#0001</v>
+        <v>HKD_YC3MRH_FUT3MV5#0002</v>
       </c>
       <c r="J26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="I27" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX5#0001</v>
+        <v>HKD_YC3MRH_FUT3MX5#0002</v>
       </c>
       <c r="J27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="I28" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ5#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="J28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -11363,7 +11363,7 @@
       </c>
       <c r="I29" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF6#0001</v>
+        <v>HKD_YC3MRH_FUT3MF6#0002</v>
       </c>
       <c r="J29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I30" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG6#0001</v>
+        <v>HKD_YC3MRH_FUT3MG6#0002</v>
       </c>
       <c r="J30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="I31" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH6#0001</v>
+        <v>HKD_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="J31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="I32" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ6#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ6#0002</v>
       </c>
       <c r="J32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="I33" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK6#0001</v>
+        <v>HKD_YC3MRH_FUT3MK6#0002</v>
       </c>
       <c r="J33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="I34" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM6#0001</v>
+        <v>HKD_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="J34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="I35" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN6#0001</v>
+        <v>HKD_YC3MRH_FUT3MN6#0002</v>
       </c>
       <c r="J35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I36" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ6#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ6#0002</v>
       </c>
       <c r="J36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -11667,7 +11667,7 @@
       </c>
       <c r="I37" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU6#0001</v>
+        <v>HKD_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="J37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="I38" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV6#0001</v>
+        <v>HKD_YC3MRH_FUT3MV6#0002</v>
       </c>
       <c r="J38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="I39" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX6#0001</v>
+        <v>HKD_YC3MRH_FUT3MX6#0002</v>
       </c>
       <c r="J39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I40" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ6#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="J40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="I41" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF7#0001</v>
+        <v>HKD_YC3MRH_FUT3MF7#0002</v>
       </c>
       <c r="J41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="I42" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG7#0001</v>
+        <v>HKD_YC3MRH_FUT3MG7#0002</v>
       </c>
       <c r="J42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="I43" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH7#0001</v>
+        <v>HKD_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="J43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I44" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ7#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ7#0002</v>
       </c>
       <c r="J44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="I45" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK7#0001</v>
+        <v>HKD_YC3MRH_FUT3MK7#0002</v>
       </c>
       <c r="J45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="I46" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM7#0001</v>
+        <v>HKD_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="J46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="I47" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN7#0001</v>
+        <v>HKD_YC3MRH_FUT3MN7#0002</v>
       </c>
       <c r="J47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="I48" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ7#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ7#0002</v>
       </c>
       <c r="J48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -12114,7 +12114,7 @@
       </c>
       <c r="I49" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU7#0001</v>
+        <v>HKD_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="J49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="I50" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV7#0001</v>
+        <v>HKD_YC3MRH_FUT3MV7#0002</v>
       </c>
       <c r="J50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="I51" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX7#0001</v>
+        <v>HKD_YC3MRH_FUT3MX7#0002</v>
       </c>
       <c r="J51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="I52" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ7#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="J52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="I53" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF8#0001</v>
+        <v>HKD_YC3MRH_FUT3MF8#0002</v>
       </c>
       <c r="J53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="I54" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG8#0001</v>
+        <v>HKD_YC3MRH_FUT3MG8#0002</v>
       </c>
       <c r="J54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="I55" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH8#0001</v>
+        <v>HKD_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="J55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="I56" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ8#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ8#0002</v>
       </c>
       <c r="J56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="I57" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK8#0001</v>
+        <v>HKD_YC3MRH_FUT3MK8#0002</v>
       </c>
       <c r="J57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="I58" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM8#0001</v>
+        <v>HKD_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="J58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="I59" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN8#0001</v>
+        <v>HKD_YC3MRH_FUT3MN8#0002</v>
       </c>
       <c r="J59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="I60" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ8#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ8#0002</v>
       </c>
       <c r="J60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="I61" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU8#0001</v>
+        <v>HKD_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="J61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="I62" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV8#0001</v>
+        <v>HKD_YC3MRH_FUT3MV8#0002</v>
       </c>
       <c r="J62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="I63" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX8#0001</v>
+        <v>HKD_YC3MRH_FUT3MX8#0002</v>
       </c>
       <c r="J63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="I64" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ8#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="J64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="I65" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF9#0001</v>
+        <v>HKD_YC3MRH_FUT3MF9#0002</v>
       </c>
       <c r="J65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="I66" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG9#0001</v>
+        <v>HKD_YC3MRH_FUT3MG9#0002</v>
       </c>
       <c r="J66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="I67" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH9#0001</v>
+        <v>HKD_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="J67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="I68" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ9#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ9#0002</v>
       </c>
       <c r="J68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="I69" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK9#0001</v>
+        <v>HKD_YC3MRH_FUT3MK9#0002</v>
       </c>
       <c r="J69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="I70" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM9#0001</v>
+        <v>HKD_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="J70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="I71" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN9#0001</v>
+        <v>HKD_YC3MRH_FUT3MN9#0002</v>
       </c>
       <c r="J71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="I72" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ9#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ9#0002</v>
       </c>
       <c r="J72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
@@ -13002,7 +13002,7 @@
       </c>
       <c r="I73" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU9#0001</v>
+        <v>HKD_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="J73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I74" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV9#0001</v>
+        <v>HKD_YC3MRH_FUT3MV9#0002</v>
       </c>
       <c r="J74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I75" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX9#0001</v>
+        <v>HKD_YC3MRH_FUT3MX9#0002</v>
       </c>
       <c r="J75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="I76" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ9#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="J76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="I77" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF0#0001</v>
+        <v>HKD_YC3MRH_FUT3MF0#0002</v>
       </c>
       <c r="J77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="I78" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG0#0001</v>
+        <v>HKD_YC3MRH_FUT3MG0#0002</v>
       </c>
       <c r="J78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="I79" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH0#0001</v>
+        <v>HKD_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="J79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="I80" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ0#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ0#0002</v>
       </c>
       <c r="J80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="I81" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK0#0001</v>
+        <v>HKD_YC3MRH_FUT3MK0#0002</v>
       </c>
       <c r="J81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="I82" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM0#0001</v>
+        <v>HKD_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="J82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="I83" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN0#0001</v>
+        <v>HKD_YC3MRH_FUT3MN0#0002</v>
       </c>
       <c r="J83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="I84" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ0#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ0#0002</v>
       </c>
       <c r="J84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="I85" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU0#0001</v>
+        <v>HKD_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="J85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="I86" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV0#0001</v>
+        <v>HKD_YC3MRH_FUT3MV0#0002</v>
       </c>
       <c r="J86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="I87" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX0#0001</v>
+        <v>HKD_YC3MRH_FUT3MX0#0002</v>
       </c>
       <c r="J87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="I88" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ0#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="J88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="I89" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF1#0001</v>
+        <v>HKD_YC3MRH_FUT3MF1#0002</v>
       </c>
       <c r="J89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="I90" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG1#0001</v>
+        <v>HKD_YC3MRH_FUT3MG1#0002</v>
       </c>
       <c r="J90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="I91" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH1#0001</v>
+        <v>HKD_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="J91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -13705,7 +13705,7 @@
       </c>
       <c r="I92" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ1#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ1#0002</v>
       </c>
       <c r="J92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="I93" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK1#0001</v>
+        <v>HKD_YC3MRH_FUT3MK1#0002</v>
       </c>
       <c r="J93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="I94" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM1#0001</v>
+        <v>HKD_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="J94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="I95" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN1#0001</v>
+        <v>HKD_YC3MRH_FUT3MN1#0002</v>
       </c>
       <c r="J95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="I96" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ1#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ1#0002</v>
       </c>
       <c r="J96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="I97" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU1#0001</v>
+        <v>HKD_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="J97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="I98" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV1#0001</v>
+        <v>HKD_YC3MRH_FUT3MV1#0002</v>
       </c>
       <c r="J98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="I99" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX1#0001</v>
+        <v>HKD_YC3MRH_FUT3MX1#0002</v>
       </c>
       <c r="J99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="I100" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ1#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="J100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="I101" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF2#0001</v>
+        <v>HKD_YC3MRH_FUT3MF2#0002</v>
       </c>
       <c r="J101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="I102" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG2#0001</v>
+        <v>HKD_YC3MRH_FUT3MG2#0002</v>
       </c>
       <c r="J102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="I103" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH2#0001</v>
+        <v>HKD_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="J103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="I104" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ2#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ2#0002</v>
       </c>
       <c r="J104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="I105" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK2#0001</v>
+        <v>HKD_YC3MRH_FUT3MK2#0002</v>
       </c>
       <c r="J105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I105)</f>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="I106" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM2#0001</v>
+        <v>HKD_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="J106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I106)</f>
@@ -14260,7 +14260,7 @@
       </c>
       <c r="I107" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN2#0001</v>
+        <v>HKD_YC3MRH_FUT3MN2#0002</v>
       </c>
       <c r="J107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I107)</f>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="I108" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ2#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ2#0002</v>
       </c>
       <c r="J108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I108)</f>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="I109" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU2#0001</v>
+        <v>HKD_YC3MRH_FUT3MU2#0002</v>
       </c>
       <c r="J109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I109)</f>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="I110" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV2#0001</v>
+        <v>HKD_YC3MRH_FUT3MV2#0002</v>
       </c>
       <c r="J110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I110)</f>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I111" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MX2#0001</v>
+        <v>HKD_YC3MRH_FUT3MX2#0002</v>
       </c>
       <c r="J111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I111)</f>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="I112" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MZ2#0001</v>
+        <v>HKD_YC3MRH_FUT3MZ2#0002</v>
       </c>
       <c r="J112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I112)</f>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="I113" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MF3#0001</v>
+        <v>HKD_YC3MRH_FUT3MF3#0002</v>
       </c>
       <c r="J113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I113)</f>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="I114" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MG3#0001</v>
+        <v>HKD_YC3MRH_FUT3MG3#0002</v>
       </c>
       <c r="J114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I114)</f>
@@ -14556,7 +14556,7 @@
       </c>
       <c r="I115" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MH3#0001</v>
+        <v>HKD_YC3MRH_FUT3MH3#0002</v>
       </c>
       <c r="J115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I115)</f>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="I116" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MJ3#0001</v>
+        <v>HKD_YC3MRH_FUT3MJ3#0002</v>
       </c>
       <c r="J116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I116)</f>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="I117" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MK3#0001</v>
+        <v>HKD_YC3MRH_FUT3MK3#0002</v>
       </c>
       <c r="J117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I117)</f>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="I118" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MM3#0001</v>
+        <v>HKD_YC3MRH_FUT3MM3#0002</v>
       </c>
       <c r="J118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I118)</f>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="I119" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MN3#0001</v>
+        <v>HKD_YC3MRH_FUT3MN3#0002</v>
       </c>
       <c r="J119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I119)</f>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="I120" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MQ3#0001</v>
+        <v>HKD_YC3MRH_FUT3MQ3#0002</v>
       </c>
       <c r="J120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I120)</f>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="I121" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MU3#0001</v>
+        <v>HKD_YC3MRH_FUT3MU3#0002</v>
       </c>
       <c r="J121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I121)</f>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="I122" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_FUT3MV3#0001</v>
+        <v>HKD_YC3MRH_FUT3MV3#0002</v>
       </c>
       <c r="J122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I122)</f>
@@ -14906,13 +14906,13 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC6MRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="39" t="e">
+      <c r="H2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="I2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="H3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G3,$F3,$D3,$E3,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX3#0002</v>
       </c>
       <c r="I3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G4,$F4,$D4,$E4,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ3#0002</v>
       </c>
       <c r="I4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G5,$F5,$D5,$E5,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF4#0002</v>
       </c>
       <c r="I5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G6,$F6,$D6,$E6,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG4#0002</v>
       </c>
       <c r="I6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="H7" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G7,$F7,$D7,$E7,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH4#0002</v>
       </c>
       <c r="I7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="H8" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G8,$F8,$D8,$E8,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ4#0002</v>
       </c>
       <c r="I8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="H9" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G9,$F9,$D9,$E9,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK4#0002</v>
       </c>
       <c r="I9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G10,$F10,$D10,$E10,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM4#0002</v>
       </c>
       <c r="I10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="H11" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G11,$F11,$D11,$E11,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN4#0002</v>
       </c>
       <c r="I11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G12,$F12,$D12,$E12,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ4#0002</v>
       </c>
       <c r="I12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="H13" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G13,$F13,$D13,$E13,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU4#0002</v>
       </c>
       <c r="I13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="H14" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G14,$F14,$D14,$E14,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV4#0002</v>
       </c>
       <c r="I14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="H15" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G15,$F15,$D15,$E15,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX4#0002</v>
       </c>
       <c r="I15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="H16" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G16,$F16,$D16,$E16,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ4#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ4#0002</v>
       </c>
       <c r="I16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="H17" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G17,$F17,$D17,$E17,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF5#0002</v>
       </c>
       <c r="I17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="H18" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G18,$F18,$D18,$E18,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG5#0002</v>
       </c>
       <c r="I18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="H19" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G19,$F19,$D19,$E19,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH5#0002</v>
       </c>
       <c r="I19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="H20" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G20,$F20,$D20,$E20,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ5#0002</v>
       </c>
       <c r="I20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="H21" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G21,$F21,$D21,$E21,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK5#0002</v>
       </c>
       <c r="I21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="H22" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G22,$F22,$D22,$E22,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM5#0002</v>
       </c>
       <c r="I22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="H23" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G23,$F23,$D23,$E23,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN5#0002</v>
       </c>
       <c r="I23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="H24" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G24,$F24,$D24,$E24,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ5#0002</v>
       </c>
       <c r="I24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="H25" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G25,$F25,$D25,$E25,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU5#0002</v>
       </c>
       <c r="I25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="H26" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G26,$F26,$D26,$E26,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV5#0002</v>
       </c>
       <c r="I26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="H27" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G27,$F27,$D27,$E27,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX5#0002</v>
       </c>
       <c r="I27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="H28" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G28,$F28,$D28,$E28,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ5#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ5#0002</v>
       </c>
       <c r="I28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="H29" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G29,$F29,$D29,$E29,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF6#0002</v>
       </c>
       <c r="I29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -15860,7 +15860,7 @@
       </c>
       <c r="H30" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G30,$F30,$D30,$E30,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG6#0002</v>
       </c>
       <c r="I30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="H31" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G31,$F31,$D31,$E31,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH6#0002</v>
       </c>
       <c r="I31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="H32" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G32,$F32,$D32,$E32,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ6#0002</v>
       </c>
       <c r="I32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G33,$F33,$D33,$E33,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK6#0002</v>
       </c>
       <c r="I33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G34,$F34,$D34,$E34,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM6#0002</v>
       </c>
       <c r="I34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G35,$F35,$D35,$E35,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN6#0002</v>
       </c>
       <c r="I35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G36,$F36,$D36,$E36,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ6#0002</v>
       </c>
       <c r="I36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="H37" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G37,$F37,$D37,$E37,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU6#0002</v>
       </c>
       <c r="I37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="H38" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G38,$F38,$D38,$E38,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV6#0002</v>
       </c>
       <c r="I38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="H39" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G39,$F39,$D39,$E39,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX6#0002</v>
       </c>
       <c r="I39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="H40" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G40,$F40,$D40,$E40,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ6#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ6#0002</v>
       </c>
       <c r="I40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="H41" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G41,$F41,$D41,$E41,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF7#0002</v>
       </c>
       <c r="I41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G42,$F42,$D42,$E42,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG7#0002</v>
       </c>
       <c r="I42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="H43" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G43,$F43,$D43,$E43,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH7#0002</v>
       </c>
       <c r="I43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H44" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G44,$F44,$D44,$E44,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ7#0002</v>
       </c>
       <c r="I44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="H45" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G45,$F45,$D45,$E45,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK7#0002</v>
       </c>
       <c r="I45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H45)</f>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="H46" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G46,$F46,$D46,$E46,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM7#0002</v>
       </c>
       <c r="I46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H46)</f>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="H47" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G47,$F47,$D47,$E47,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN7#0002</v>
       </c>
       <c r="I47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H47)</f>
@@ -16464,7 +16464,7 @@
       </c>
       <c r="H48" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G48,$F48,$D48,$E48,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ7#0002</v>
       </c>
       <c r="I48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H48)</f>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="H49" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G49,$F49,$D49,$E49,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU7#0002</v>
       </c>
       <c r="I49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H49)</f>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="H50" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G50,$F50,$D50,$E50,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV7#0002</v>
       </c>
       <c r="I50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H50)</f>
@@ -16563,7 +16563,7 @@
       </c>
       <c r="H51" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G51,$F51,$D51,$E51,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX7#0002</v>
       </c>
       <c r="I51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H51)</f>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="H52" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G52,$F52,$D52,$E52,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ7#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ7#0002</v>
       </c>
       <c r="I52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H52)</f>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="H53" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G53,$F53,$D53,$E53,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF8#0002</v>
       </c>
       <c r="I53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H53)</f>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="H54" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G54,$F54,$D54,$E54,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG8#0002</v>
       </c>
       <c r="I54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H54)</f>
@@ -16695,7 +16695,7 @@
       </c>
       <c r="H55" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G55,$F55,$D55,$E55,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH8#0002</v>
       </c>
       <c r="I55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H55)</f>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="H56" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G56,$F56,$D56,$E56,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ8#0002</v>
       </c>
       <c r="I56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H56)</f>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="H57" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G57,$F57,$D57,$E57,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK8#0002</v>
       </c>
       <c r="I57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H57)</f>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="H58" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G58,$F58,$D58,$E58,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM8#0002</v>
       </c>
       <c r="I58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H58)</f>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="H59" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G59,$F59,$D59,$E59,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN8#0002</v>
       </c>
       <c r="I59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H59)</f>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="H60" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G60,$F60,$D60,$E60,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ8#0002</v>
       </c>
       <c r="I60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H60)</f>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="H61" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G61,$F61,$D61,$E61,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU8#0002</v>
       </c>
       <c r="I61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H61)</f>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="H62" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G62,$F62,$D62,$E62,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV8#0002</v>
       </c>
       <c r="I62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H62)</f>
@@ -16959,7 +16959,7 @@
       </c>
       <c r="H63" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G63,$F63,$D63,$E63,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX8#0002</v>
       </c>
       <c r="I63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H63)</f>
@@ -16992,7 +16992,7 @@
       </c>
       <c r="H64" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G64,$F64,$D64,$E64,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ8#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ8#0002</v>
       </c>
       <c r="I64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H64)</f>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="H65" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G65,$F65,$D65,$E65,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF9#0002</v>
       </c>
       <c r="I65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H65)</f>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="H66" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G66,$F66,$D66,$E66,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG9#0002</v>
       </c>
       <c r="I66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H66)</f>
@@ -17091,7 +17091,7 @@
       </c>
       <c r="H67" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G67,$F67,$D67,$E67,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH9#0002</v>
       </c>
       <c r="I67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H67)</f>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H68" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G68,$F68,$D68,$E68,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ9#0002</v>
       </c>
       <c r="I68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H68)</f>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="H69" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G69,$F69,$D69,$E69,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK9#0002</v>
       </c>
       <c r="I69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H69)</f>
@@ -17190,7 +17190,7 @@
       </c>
       <c r="H70" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G70,$F70,$D70,$E70,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM9#0002</v>
       </c>
       <c r="I70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H70)</f>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="H71" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G71,$F71,$D71,$E71,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN9#0002</v>
       </c>
       <c r="I71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H71)</f>
@@ -17256,7 +17256,7 @@
       </c>
       <c r="H72" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G72,$F72,$D72,$E72,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ9#0002</v>
       </c>
       <c r="I72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H72)</f>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="H73" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G73,$F73,$D73,$E73,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU9#0002</v>
       </c>
       <c r="I73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H73)</f>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="H74" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G74,$F74,$D74,$E74,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV9#0002</v>
       </c>
       <c r="I74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H74)</f>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="H75" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G75,$F75,$D75,$E75,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX9#0002</v>
       </c>
       <c r="I75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H75)</f>
@@ -17388,7 +17388,7 @@
       </c>
       <c r="H76" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G76,$F76,$D76,$E76,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ9#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ9#0002</v>
       </c>
       <c r="I76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H76)</f>
@@ -17421,7 +17421,7 @@
       </c>
       <c r="H77" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G77,$F77,$D77,$E77,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF0#0002</v>
       </c>
       <c r="I77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H77)</f>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="H78" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G78,$F78,$D78,$E78,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG0#0002</v>
       </c>
       <c r="I78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H78)</f>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="H79" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G79,$F79,$D79,$E79,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH0#0002</v>
       </c>
       <c r="I79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H79)</f>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="H80" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G80,$F80,$D80,$E80,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ0#0002</v>
       </c>
       <c r="I80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H80)</f>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="H81" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G81,$F81,$D81,$E81,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK0#0002</v>
       </c>
       <c r="I81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H81)</f>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="H82" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G82,$F82,$D82,$E82,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM0#0002</v>
       </c>
       <c r="I82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H82)</f>
@@ -17619,7 +17619,7 @@
       </c>
       <c r="H83" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G83,$F83,$D83,$E83,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN0#0002</v>
       </c>
       <c r="I83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H83)</f>
@@ -17652,7 +17652,7 @@
       </c>
       <c r="H84" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G84,$F84,$D84,$E84,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ0#0002</v>
       </c>
       <c r="I84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H84)</f>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="H85" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G85,$F85,$D85,$E85,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU0#0002</v>
       </c>
       <c r="I85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H85)</f>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="H86" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G86,$F86,$D86,$E86,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV0#0002</v>
       </c>
       <c r="I86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H86)</f>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="H87" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G87,$F87,$D87,$E87,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX0#0002</v>
       </c>
       <c r="I87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H87)</f>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="H88" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G88,$F88,$D88,$E88,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ0#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ0#0002</v>
       </c>
       <c r="I88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H88)</f>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="H89" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G89,$F89,$D89,$E89,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF1#0002</v>
       </c>
       <c r="I89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H89)</f>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="H90" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G90,$F90,$D90,$E90,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG1#0002</v>
       </c>
       <c r="I90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H90)</f>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="H91" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G91,$F91,$D91,$E91,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH1#0002</v>
       </c>
       <c r="I91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H91)</f>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H92" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G92,$F92,$D92,$E92,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ1#0002</v>
       </c>
       <c r="I92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H92)</f>
@@ -17949,7 +17949,7 @@
       </c>
       <c r="H93" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G93,$F93,$D93,$E93,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK1#0002</v>
       </c>
       <c r="I93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H93)</f>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="H94" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G94,$F94,$D94,$E94,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM1#0002</v>
       </c>
       <c r="I94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H94)</f>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="H95" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G95,$F95,$D95,$E95,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN1#0002</v>
       </c>
       <c r="I95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H95)</f>
@@ -18048,7 +18048,7 @@
       </c>
       <c r="H96" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G96,$F96,$D96,$E96,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ1#0002</v>
       </c>
       <c r="I96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H96)</f>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="H97" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G97,$F97,$D97,$E97,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU1#0002</v>
       </c>
       <c r="I97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H97)</f>
@@ -18114,7 +18114,7 @@
       </c>
       <c r="H98" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G98,$F98,$D98,$E98,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV1#0002</v>
       </c>
       <c r="I98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H98)</f>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="H99" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G99,$F99,$D99,$E99,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX1#0002</v>
       </c>
       <c r="I99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H99)</f>
@@ -18180,7 +18180,7 @@
       </c>
       <c r="H100" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G100,$F100,$D100,$E100,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ1#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ1#0002</v>
       </c>
       <c r="I100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H100)</f>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="H101" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G101,$F101,$D101,$E101,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF2#0002</v>
       </c>
       <c r="I101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H101)</f>
@@ -18246,7 +18246,7 @@
       </c>
       <c r="H102" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G102,$F102,$D102,$E102,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG2#0002</v>
       </c>
       <c r="I102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H102)</f>
@@ -18279,7 +18279,7 @@
       </c>
       <c r="H103" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G103,$F103,$D103,$E103,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH2#0002</v>
       </c>
       <c r="I103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H103)</f>
@@ -18312,7 +18312,7 @@
       </c>
       <c r="H104" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G104,$F104,$D104,$E104,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ2#0002</v>
       </c>
       <c r="I104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H104)</f>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="H105" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G105,$F105,$D105,$E105,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK2#0002</v>
       </c>
       <c r="I105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H105)</f>
@@ -18378,7 +18378,7 @@
       </c>
       <c r="H106" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G106,$F106,$D106,$E106,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM2#0002</v>
       </c>
       <c r="I106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H106)</f>
@@ -18411,7 +18411,7 @@
       </c>
       <c r="H107" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G107,$F107,$D107,$E107,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN2#0002</v>
       </c>
       <c r="I107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H107)</f>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="H108" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G108,$F108,$D108,$E108,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ2#0002</v>
       </c>
       <c r="I108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H108)</f>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="H109" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G109,$F109,$D109,$E109,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU2#0002</v>
       </c>
       <c r="I109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H109)</f>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="H110" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G110,$F110,$D110,$E110,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV2#0002</v>
       </c>
       <c r="I110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H110)</f>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="H111" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G111,$F111,$D111,$E111,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MX2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MX2#0002</v>
       </c>
       <c r="I111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H111)</f>
@@ -18576,7 +18576,7 @@
       </c>
       <c r="H112" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G112,$F112,$D112,$E112,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MZ2#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MZ2#0002</v>
       </c>
       <c r="I112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H112)</f>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="H113" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G113,$F113,$D113,$E113,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MF3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MF3#0002</v>
       </c>
       <c r="I113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H113)</f>
@@ -18642,7 +18642,7 @@
       </c>
       <c r="H114" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G114,$F114,$D114,$E114,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MG3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MG3#0002</v>
       </c>
       <c r="I114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H114)</f>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="H115" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G115,$F115,$D115,$E115,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MH3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MH3#0002</v>
       </c>
       <c r="I115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H115)</f>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H116" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G116,$F116,$D116,$E116,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MJ3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MJ3#0002</v>
       </c>
       <c r="I116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H116)</f>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="H117" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G117,$F117,$D117,$E117,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MK3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MK3#0002</v>
       </c>
       <c r="I117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H117)</f>
@@ -18774,7 +18774,7 @@
       </c>
       <c r="H118" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G118,$F118,$D118,$E118,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MM3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MM3#0002</v>
       </c>
       <c r="I118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H118)</f>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="H119" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G119,$F119,$D119,$E119,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MN3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MN3#0002</v>
       </c>
       <c r="I119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H119)</f>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="H120" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G120,$F120,$D120,$E120,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MQ3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MQ3#0002</v>
       </c>
       <c r="I120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H120)</f>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="H121" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G121,$F121,$D121,$E121,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MU3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MU3#0002</v>
       </c>
       <c r="I121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H121)</f>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="H122" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G122,$F122,$D122,$E122,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_IMMFRA6MV3#0001</v>
+        <v>HKD_YC6MRH_IMMFRA6MV3#0002</v>
       </c>
       <c r="I122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H122)</f>
@@ -19003,13 +19003,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC1M-MxRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="39" t="e">
+      <c r="I2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -19043,7 +19043,7 @@
       </c>
       <c r="I3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX3#0002</v>
       </c>
       <c r="J3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I4" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ3#0002</v>
       </c>
       <c r="J4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -19119,7 +19119,7 @@
       </c>
       <c r="I5" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF4#0002</v>
       </c>
       <c r="J5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -19157,7 +19157,7 @@
       </c>
       <c r="I6" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG4#0002</v>
       </c>
       <c r="J6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="I7" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH4#0002</v>
       </c>
       <c r="J7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -19233,7 +19233,7 @@
       </c>
       <c r="I8" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ4#0002</v>
       </c>
       <c r="J8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="I9" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK4#0002</v>
       </c>
       <c r="J9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -19309,7 +19309,7 @@
       </c>
       <c r="I10" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM4#0002</v>
       </c>
       <c r="J10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -19347,7 +19347,7 @@
       </c>
       <c r="I11" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN4#0002</v>
       </c>
       <c r="J11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -19385,7 +19385,7 @@
       </c>
       <c r="I12" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ4#0002</v>
       </c>
       <c r="J12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -19423,7 +19423,7 @@
       </c>
       <c r="I13" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU4#0002</v>
       </c>
       <c r="J13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -19461,7 +19461,7 @@
       </c>
       <c r="I14" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV4#0002</v>
       </c>
       <c r="J14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -19499,7 +19499,7 @@
       </c>
       <c r="I15" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX4#0002</v>
       </c>
       <c r="J15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="I16" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ4#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ4#0002</v>
       </c>
       <c r="J16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="I17" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF5#0002</v>
       </c>
       <c r="J17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="I18" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG5#0002</v>
       </c>
       <c r="J18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="I19" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH5#0002</v>
       </c>
       <c r="J19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -19689,7 +19689,7 @@
       </c>
       <c r="I20" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ5#0002</v>
       </c>
       <c r="J20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="I21" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK5#0002</v>
       </c>
       <c r="J21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="I22" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM5#0002</v>
       </c>
       <c r="J22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="I23" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN5#0002</v>
       </c>
       <c r="J23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -19841,7 +19841,7 @@
       </c>
       <c r="I24" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ5#0002</v>
       </c>
       <c r="J24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="I25" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU5#0002</v>
       </c>
       <c r="J25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -19917,7 +19917,7 @@
       </c>
       <c r="I26" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV5#0002</v>
       </c>
       <c r="J26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="I27" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX5#0002</v>
       </c>
       <c r="J27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="I28" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ5#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ5#0002</v>
       </c>
       <c r="J28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="I29" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF6#0002</v>
       </c>
       <c r="J29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="I30" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG6#0002</v>
       </c>
       <c r="J30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -20107,7 +20107,7 @@
       </c>
       <c r="I31" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH6#0002</v>
       </c>
       <c r="J31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="I32" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ6#0002</v>
       </c>
       <c r="J32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -20183,7 +20183,7 @@
       </c>
       <c r="I33" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK6#0002</v>
       </c>
       <c r="J33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="I34" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM6#0002</v>
       </c>
       <c r="J34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -20259,7 +20259,7 @@
       </c>
       <c r="I35" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN6#0002</v>
       </c>
       <c r="J35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="I36" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ6#0002</v>
       </c>
       <c r="J36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="I37" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU6#0002</v>
       </c>
       <c r="J37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -20373,7 +20373,7 @@
       </c>
       <c r="I38" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV6#0002</v>
       </c>
       <c r="J38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="I39" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX6#0002</v>
       </c>
       <c r="J39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="I40" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ6#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ6#0002</v>
       </c>
       <c r="J40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="I41" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF7#0002</v>
       </c>
       <c r="J41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="I42" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG7#0002</v>
       </c>
       <c r="J42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -20560,7 +20560,7 @@
       </c>
       <c r="I43" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH7#0002</v>
       </c>
       <c r="J43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="I44" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ7#0002</v>
       </c>
       <c r="J44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -20634,7 +20634,7 @@
       </c>
       <c r="I45" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK7#0002</v>
       </c>
       <c r="J45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -20671,7 +20671,7 @@
       </c>
       <c r="I46" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM7#0002</v>
       </c>
       <c r="J46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="I47" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN7#0002</v>
       </c>
       <c r="J47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="I48" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ7#0002</v>
       </c>
       <c r="J48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -20782,7 +20782,7 @@
       </c>
       <c r="I49" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU7#0002</v>
       </c>
       <c r="J49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -20819,7 +20819,7 @@
       </c>
       <c r="I50" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV7#0002</v>
       </c>
       <c r="J50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="I51" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX7#0002</v>
       </c>
       <c r="J51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="I52" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ7#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ7#0002</v>
       </c>
       <c r="J52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -20930,7 +20930,7 @@
       </c>
       <c r="I53" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF8#0002</v>
       </c>
       <c r="J53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -20967,7 +20967,7 @@
       </c>
       <c r="I54" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG8#0002</v>
       </c>
       <c r="J54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
@@ -21004,7 +21004,7 @@
       </c>
       <c r="I55" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH8#0002</v>
       </c>
       <c r="J55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="I56" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ8#0002</v>
       </c>
       <c r="J56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="I57" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK8#0002</v>
       </c>
       <c r="J57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="I58" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM8#0002</v>
       </c>
       <c r="J58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="I59" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN8#0002</v>
       </c>
       <c r="J59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -21189,7 +21189,7 @@
       </c>
       <c r="I60" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ8#0002</v>
       </c>
       <c r="J60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="I61" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU8#0002</v>
       </c>
       <c r="J61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -21263,7 +21263,7 @@
       </c>
       <c r="I62" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV8#0002</v>
       </c>
       <c r="J62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="I63" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX8#0002</v>
       </c>
       <c r="J63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="I64" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ8#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ8#0002</v>
       </c>
       <c r="J64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="I65" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF9#0002</v>
       </c>
       <c r="J65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -21411,7 +21411,7 @@
       </c>
       <c r="I66" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG9#0002</v>
       </c>
       <c r="J66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="I67" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH9#0002</v>
       </c>
       <c r="J67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="I68" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ9#0002</v>
       </c>
       <c r="J68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -21522,7 +21522,7 @@
       </c>
       <c r="I69" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK9#0002</v>
       </c>
       <c r="J69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="I70" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM9#0002</v>
       </c>
       <c r="J70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I71" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN9#0002</v>
       </c>
       <c r="J71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="I72" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ9#0002</v>
       </c>
       <c r="J72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="I73" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU9#0002</v>
       </c>
       <c r="J73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="I74" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV9#0002</v>
       </c>
       <c r="J74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -21744,7 +21744,7 @@
       </c>
       <c r="I75" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX9#0002</v>
       </c>
       <c r="J75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="I76" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ9#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ9#0002</v>
       </c>
       <c r="J76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -21818,7 +21818,7 @@
       </c>
       <c r="I77" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF0#0002</v>
       </c>
       <c r="J77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -21855,7 +21855,7 @@
       </c>
       <c r="I78" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG0#0002</v>
       </c>
       <c r="J78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
@@ -21892,7 +21892,7 @@
       </c>
       <c r="I79" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH0#0002</v>
       </c>
       <c r="J79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -21929,7 +21929,7 @@
       </c>
       <c r="I80" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ0#0002</v>
       </c>
       <c r="J80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="I81" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK0#0002</v>
       </c>
       <c r="J81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="I82" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM0#0002</v>
       </c>
       <c r="J82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="I83" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN0#0002</v>
       </c>
       <c r="J83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -22077,7 +22077,7 @@
       </c>
       <c r="I84" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ0#0002</v>
       </c>
       <c r="J84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
@@ -22114,7 +22114,7 @@
       </c>
       <c r="I85" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU0#0002</v>
       </c>
       <c r="J85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -22151,7 +22151,7 @@
       </c>
       <c r="I86" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV0#0002</v>
       </c>
       <c r="J86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -22188,7 +22188,7 @@
       </c>
       <c r="I87" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX0#0002</v>
       </c>
       <c r="J87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="I88" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ0#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ0#0002</v>
       </c>
       <c r="J88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="I89" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF1#0002</v>
       </c>
       <c r="J89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -22299,7 +22299,7 @@
       </c>
       <c r="I90" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG1#0002</v>
       </c>
       <c r="J90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
@@ -22336,7 +22336,7 @@
       </c>
       <c r="I91" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH1#0002</v>
       </c>
       <c r="J91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -22373,7 +22373,7 @@
       </c>
       <c r="I92" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ1#0002</v>
       </c>
       <c r="J92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="I93" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK1#0002</v>
       </c>
       <c r="J93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
@@ -22447,7 +22447,7 @@
       </c>
       <c r="I94" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM1#0002</v>
       </c>
       <c r="J94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="I95" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN1#0002</v>
       </c>
       <c r="J95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -22521,7 +22521,7 @@
       </c>
       <c r="I96" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ1#0002</v>
       </c>
       <c r="J96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
@@ -22558,7 +22558,7 @@
       </c>
       <c r="I97" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU1#0002</v>
       </c>
       <c r="J97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="I98" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV1#0002</v>
       </c>
       <c r="J98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="I99" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX1#0002</v>
       </c>
       <c r="J99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I100" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ1#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ1#0002</v>
       </c>
       <c r="J100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -22706,7 +22706,7 @@
       </c>
       <c r="I101" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF2#0002</v>
       </c>
       <c r="J101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="I102" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG2#0002</v>
       </c>
       <c r="J102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="I103" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH2#0002</v>
       </c>
       <c r="J103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I104" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ2#0002</v>
       </c>
       <c r="J104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -22854,7 +22854,7 @@
       </c>
       <c r="I105" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK2#0002</v>
       </c>
       <c r="J105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I105)</f>
@@ -22891,7 +22891,7 @@
       </c>
       <c r="I106" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM2#0002</v>
       </c>
       <c r="J106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I106)</f>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="I107" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN2#0002</v>
       </c>
       <c r="J107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I107)</f>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="I108" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ2#0002</v>
       </c>
       <c r="J108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I108)</f>
@@ -23002,7 +23002,7 @@
       </c>
       <c r="I109" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU2#0002</v>
       </c>
       <c r="J109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I109)</f>
@@ -23039,7 +23039,7 @@
       </c>
       <c r="I110" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV2#0002</v>
       </c>
       <c r="J110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I110)</f>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="I111" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MX2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MX2#0002</v>
       </c>
       <c r="J111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I111)</f>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I112" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MZ2#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MZ2#0002</v>
       </c>
       <c r="J112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I112)</f>
@@ -23150,7 +23150,7 @@
       </c>
       <c r="I113" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MF3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MF3#0002</v>
       </c>
       <c r="J113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I113)</f>
@@ -23187,7 +23187,7 @@
       </c>
       <c r="I114" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MG3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MG3#0002</v>
       </c>
       <c r="J114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I114)</f>
@@ -23224,7 +23224,7 @@
       </c>
       <c r="I115" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MH3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MH3#0002</v>
       </c>
       <c r="J115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I115)</f>
@@ -23261,7 +23261,7 @@
       </c>
       <c r="I116" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MJ3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MJ3#0002</v>
       </c>
       <c r="J116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I116)</f>
@@ -23298,7 +23298,7 @@
       </c>
       <c r="I117" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MK3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MK3#0002</v>
       </c>
       <c r="J117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I117)</f>
@@ -23335,7 +23335,7 @@
       </c>
       <c r="I118" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MM3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MM3#0002</v>
       </c>
       <c r="J118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I118)</f>
@@ -23372,7 +23372,7 @@
       </c>
       <c r="I119" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MN3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MN3#0002</v>
       </c>
       <c r="J119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I119)</f>
@@ -23409,7 +23409,7 @@
       </c>
       <c r="I120" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MQ3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MQ3#0002</v>
       </c>
       <c r="J120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I120)</f>
@@ -23446,7 +23446,7 @@
       </c>
       <c r="I121" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MU3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MU3#0002</v>
       </c>
       <c r="J121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I121)</f>
@@ -23483,7 +23483,7 @@
       </c>
       <c r="I122" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1M-MxRH_FUT1MV3#0001</v>
+        <v>HKD_YC1M-MxRH_FUT1MV3#0002</v>
       </c>
       <c r="J122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I122)</f>
@@ -23579,13 +23579,13 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC3M-MxRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="39" t="e">
+      <c r="I2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="J2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -23619,7 +23619,7 @@
       </c>
       <c r="I3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX3#0002</v>
       </c>
       <c r="J3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="I4" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ3#0002</v>
       </c>
       <c r="J4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="I5" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF4#0002</v>
       </c>
       <c r="J5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -23733,7 +23733,7 @@
       </c>
       <c r="I6" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG4#0002</v>
       </c>
       <c r="J6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="I7" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH4#0002</v>
       </c>
       <c r="J7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -23809,7 +23809,7 @@
       </c>
       <c r="I8" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ4#0002</v>
       </c>
       <c r="J8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -23847,7 +23847,7 @@
       </c>
       <c r="I9" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK4#0002</v>
       </c>
       <c r="J9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -23885,7 +23885,7 @@
       </c>
       <c r="I10" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM4#0002</v>
       </c>
       <c r="J10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="I11" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN4#0002</v>
       </c>
       <c r="J11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="I12" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ4#0002</v>
       </c>
       <c r="J12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -23999,7 +23999,7 @@
       </c>
       <c r="I13" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU4#0002</v>
       </c>
       <c r="J13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -24037,7 +24037,7 @@
       </c>
       <c r="I14" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV4#0002</v>
       </c>
       <c r="J14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="I15" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX4#0002</v>
       </c>
       <c r="J15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="I16" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ4#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ4#0002</v>
       </c>
       <c r="J16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="I17" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF5#0002</v>
       </c>
       <c r="J17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="I18" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG5#0002</v>
       </c>
       <c r="J18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -24227,7 +24227,7 @@
       </c>
       <c r="I19" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH5#0002</v>
       </c>
       <c r="J19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="I20" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ5#0002</v>
       </c>
       <c r="J20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -24303,7 +24303,7 @@
       </c>
       <c r="I21" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK5#0002</v>
       </c>
       <c r="J21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="I22" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM5#0002</v>
       </c>
       <c r="J22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -24379,7 +24379,7 @@
       </c>
       <c r="I23" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN5#0002</v>
       </c>
       <c r="J23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -24417,7 +24417,7 @@
       </c>
       <c r="I24" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ5#0002</v>
       </c>
       <c r="J24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -24455,7 +24455,7 @@
       </c>
       <c r="I25" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU5#0002</v>
       </c>
       <c r="J25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -24493,7 +24493,7 @@
       </c>
       <c r="I26" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV5#0002</v>
       </c>
       <c r="J26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -24531,7 +24531,7 @@
       </c>
       <c r="I27" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX5#0002</v>
       </c>
       <c r="J27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -24569,7 +24569,7 @@
       </c>
       <c r="I28" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ5#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ5#0002</v>
       </c>
       <c r="J28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -24607,7 +24607,7 @@
       </c>
       <c r="I29" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF6#0002</v>
       </c>
       <c r="J29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -24645,7 +24645,7 @@
       </c>
       <c r="I30" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG6#0002</v>
       </c>
       <c r="J30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -24683,7 +24683,7 @@
       </c>
       <c r="I31" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH6#0002</v>
       </c>
       <c r="J31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -24721,7 +24721,7 @@
       </c>
       <c r="I32" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ6#0002</v>
       </c>
       <c r="J32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -24759,7 +24759,7 @@
       </c>
       <c r="I33" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK6#0002</v>
       </c>
       <c r="J33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -24797,7 +24797,7 @@
       </c>
       <c r="I34" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM6#0002</v>
       </c>
       <c r="J34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="I35" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN6#0002</v>
       </c>
       <c r="J35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -24873,7 +24873,7 @@
       </c>
       <c r="I36" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ6#0002</v>
       </c>
       <c r="J36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="I37" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU6#0002</v>
       </c>
       <c r="J37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -24949,7 +24949,7 @@
       </c>
       <c r="I38" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV6#0002</v>
       </c>
       <c r="J38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -24987,7 +24987,7 @@
       </c>
       <c r="I39" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX6#0002</v>
       </c>
       <c r="J39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -25025,7 +25025,7 @@
       </c>
       <c r="I40" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ6#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ6#0002</v>
       </c>
       <c r="J40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -25062,7 +25062,7 @@
       </c>
       <c r="I41" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF7#0002</v>
       </c>
       <c r="J41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -25099,7 +25099,7 @@
       </c>
       <c r="I42" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG7#0002</v>
       </c>
       <c r="J42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="I43" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH7#0002</v>
       </c>
       <c r="J43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -25173,7 +25173,7 @@
       </c>
       <c r="I44" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ7#0002</v>
       </c>
       <c r="J44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -25210,7 +25210,7 @@
       </c>
       <c r="I45" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK7#0002</v>
       </c>
       <c r="J45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -25247,7 +25247,7 @@
       </c>
       <c r="I46" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM7#0002</v>
       </c>
       <c r="J46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
@@ -25284,7 +25284,7 @@
       </c>
       <c r="I47" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN7#0002</v>
       </c>
       <c r="J47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I47)</f>
@@ -25321,7 +25321,7 @@
       </c>
       <c r="I48" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ7#0002</v>
       </c>
       <c r="J48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I48)</f>
@@ -25358,7 +25358,7 @@
       </c>
       <c r="I49" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU7#0002</v>
       </c>
       <c r="J49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I49)</f>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="I50" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV7#0002</v>
       </c>
       <c r="J50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I50)</f>
@@ -25432,7 +25432,7 @@
       </c>
       <c r="I51" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX7#0002</v>
       </c>
       <c r="J51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I51)</f>
@@ -25469,7 +25469,7 @@
       </c>
       <c r="I52" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ7#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ7#0002</v>
       </c>
       <c r="J52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I52)</f>
@@ -25506,7 +25506,7 @@
       </c>
       <c r="I53" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF8#0002</v>
       </c>
       <c r="J53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I53)</f>
@@ -25543,7 +25543,7 @@
       </c>
       <c r="I54" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG8#0002</v>
       </c>
       <c r="J54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I54)</f>
@@ -25580,7 +25580,7 @@
       </c>
       <c r="I55" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH8#0002</v>
       </c>
       <c r="J55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I55)</f>
@@ -25617,7 +25617,7 @@
       </c>
       <c r="I56" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ8#0002</v>
       </c>
       <c r="J56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I56)</f>
@@ -25654,7 +25654,7 @@
       </c>
       <c r="I57" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK8#0002</v>
       </c>
       <c r="J57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I57)</f>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="I58" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM8#0002</v>
       </c>
       <c r="J58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I58)</f>
@@ -25728,7 +25728,7 @@
       </c>
       <c r="I59" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN8#0002</v>
       </c>
       <c r="J59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I59)</f>
@@ -25765,7 +25765,7 @@
       </c>
       <c r="I60" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ8#0002</v>
       </c>
       <c r="J60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I60)</f>
@@ -25802,7 +25802,7 @@
       </c>
       <c r="I61" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU8#0002</v>
       </c>
       <c r="J61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I61)</f>
@@ -25839,7 +25839,7 @@
       </c>
       <c r="I62" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV8#0002</v>
       </c>
       <c r="J62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I62)</f>
@@ -25876,7 +25876,7 @@
       </c>
       <c r="I63" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX8#0002</v>
       </c>
       <c r="J63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I63)</f>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="I64" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ8#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ8#0002</v>
       </c>
       <c r="J64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I64)</f>
@@ -25950,7 +25950,7 @@
       </c>
       <c r="I65" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF9#0002</v>
       </c>
       <c r="J65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I65)</f>
@@ -25987,7 +25987,7 @@
       </c>
       <c r="I66" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG9#0002</v>
       </c>
       <c r="J66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I66)</f>
@@ -26024,7 +26024,7 @@
       </c>
       <c r="I67" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH9#0002</v>
       </c>
       <c r="J67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I67)</f>
@@ -26061,7 +26061,7 @@
       </c>
       <c r="I68" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ9#0002</v>
       </c>
       <c r="J68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I68)</f>
@@ -26098,7 +26098,7 @@
       </c>
       <c r="I69" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK9#0002</v>
       </c>
       <c r="J69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I69)</f>
@@ -26135,7 +26135,7 @@
       </c>
       <c r="I70" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM9#0002</v>
       </c>
       <c r="J70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I70)</f>
@@ -26172,7 +26172,7 @@
       </c>
       <c r="I71" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN9#0002</v>
       </c>
       <c r="J71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I71)</f>
@@ -26209,7 +26209,7 @@
       </c>
       <c r="I72" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ9#0002</v>
       </c>
       <c r="J72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I72)</f>
@@ -26246,7 +26246,7 @@
       </c>
       <c r="I73" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU9#0002</v>
       </c>
       <c r="J73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I73)</f>
@@ -26283,7 +26283,7 @@
       </c>
       <c r="I74" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV9#0002</v>
       </c>
       <c r="J74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I74)</f>
@@ -26320,7 +26320,7 @@
       </c>
       <c r="I75" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX9#0002</v>
       </c>
       <c r="J75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I75)</f>
@@ -26357,7 +26357,7 @@
       </c>
       <c r="I76" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ9#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ9#0002</v>
       </c>
       <c r="J76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I76)</f>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="I77" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF0#0002</v>
       </c>
       <c r="J77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I77)</f>
@@ -26431,7 +26431,7 @@
       </c>
       <c r="I78" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG0#0002</v>
       </c>
       <c r="J78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I78)</f>
@@ -26468,7 +26468,7 @@
       </c>
       <c r="I79" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH0#0002</v>
       </c>
       <c r="J79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I79)</f>
@@ -26505,7 +26505,7 @@
       </c>
       <c r="I80" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ0#0002</v>
       </c>
       <c r="J80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I80)</f>
@@ -26542,7 +26542,7 @@
       </c>
       <c r="I81" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK0#0002</v>
       </c>
       <c r="J81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I81)</f>
@@ -26579,7 +26579,7 @@
       </c>
       <c r="I82" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM0#0002</v>
       </c>
       <c r="J82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I82)</f>
@@ -26616,7 +26616,7 @@
       </c>
       <c r="I83" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN0#0002</v>
       </c>
       <c r="J83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I83)</f>
@@ -26653,7 +26653,7 @@
       </c>
       <c r="I84" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ0#0002</v>
       </c>
       <c r="J84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I84)</f>
@@ -26690,7 +26690,7 @@
       </c>
       <c r="I85" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU0#0002</v>
       </c>
       <c r="J85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I85)</f>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="I86" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV0#0002</v>
       </c>
       <c r="J86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I86)</f>
@@ -26764,7 +26764,7 @@
       </c>
       <c r="I87" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX0#0002</v>
       </c>
       <c r="J87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I87)</f>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="I88" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ0#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ0#0002</v>
       </c>
       <c r="J88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I88)</f>
@@ -26838,7 +26838,7 @@
       </c>
       <c r="I89" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF1#0002</v>
       </c>
       <c r="J89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I89)</f>
@@ -26875,7 +26875,7 @@
       </c>
       <c r="I90" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG1#0002</v>
       </c>
       <c r="J90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I90)</f>
@@ -26912,7 +26912,7 @@
       </c>
       <c r="I91" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH1#0002</v>
       </c>
       <c r="J91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I91)</f>
@@ -26949,7 +26949,7 @@
       </c>
       <c r="I92" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ1#0002</v>
       </c>
       <c r="J92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I92)</f>
@@ -26986,7 +26986,7 @@
       </c>
       <c r="I93" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK1#0002</v>
       </c>
       <c r="J93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I93)</f>
@@ -27023,7 +27023,7 @@
       </c>
       <c r="I94" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM1#0002</v>
       </c>
       <c r="J94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I94)</f>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="I95" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN1#0002</v>
       </c>
       <c r="J95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I95)</f>
@@ -27097,7 +27097,7 @@
       </c>
       <c r="I96" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ1#0002</v>
       </c>
       <c r="J96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I96)</f>
@@ -27134,7 +27134,7 @@
       </c>
       <c r="I97" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU1#0002</v>
       </c>
       <c r="J97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I97)</f>
@@ -27171,7 +27171,7 @@
       </c>
       <c r="I98" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV1#0002</v>
       </c>
       <c r="J98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I98)</f>
@@ -27208,7 +27208,7 @@
       </c>
       <c r="I99" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX1#0002</v>
       </c>
       <c r="J99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I99)</f>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="I100" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ1#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ1#0002</v>
       </c>
       <c r="J100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I100)</f>
@@ -27282,7 +27282,7 @@
       </c>
       <c r="I101" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF2#0002</v>
       </c>
       <c r="J101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I101)</f>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="I102" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG2#0002</v>
       </c>
       <c r="J102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I102)</f>
@@ -27356,7 +27356,7 @@
       </c>
       <c r="I103" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH2#0002</v>
       </c>
       <c r="J103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I103)</f>
@@ -27393,7 +27393,7 @@
       </c>
       <c r="I104" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ2#0002</v>
       </c>
       <c r="J104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I104)</f>
@@ -27430,7 +27430,7 @@
       </c>
       <c r="I105" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK2#0002</v>
       </c>
       <c r="J105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I105)</f>
@@ -27467,7 +27467,7 @@
       </c>
       <c r="I106" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM2#0002</v>
       </c>
       <c r="J106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I106)</f>
@@ -27504,7 +27504,7 @@
       </c>
       <c r="I107" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN2#0002</v>
       </c>
       <c r="J107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I107)</f>
@@ -27541,7 +27541,7 @@
       </c>
       <c r="I108" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ2#0002</v>
       </c>
       <c r="J108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I108)</f>
@@ -27578,7 +27578,7 @@
       </c>
       <c r="I109" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU2#0002</v>
       </c>
       <c r="J109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I109)</f>
@@ -27615,7 +27615,7 @@
       </c>
       <c r="I110" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV2#0002</v>
       </c>
       <c r="J110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I110)</f>
@@ -27652,7 +27652,7 @@
       </c>
       <c r="I111" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MX2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MX2#0002</v>
       </c>
       <c r="J111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I111)</f>
@@ -27689,7 +27689,7 @@
       </c>
       <c r="I112" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MZ2#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MZ2#0002</v>
       </c>
       <c r="J112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I112)</f>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="I113" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MF3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MF3#0002</v>
       </c>
       <c r="J113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I113)</f>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="I114" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MG3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MG3#0002</v>
       </c>
       <c r="J114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I114)</f>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="I115" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MH3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MH3#0002</v>
       </c>
       <c r="J115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I115)</f>
@@ -27837,7 +27837,7 @@
       </c>
       <c r="I116" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MJ3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MJ3#0002</v>
       </c>
       <c r="J116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I116)</f>
@@ -27874,7 +27874,7 @@
       </c>
       <c r="I117" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MK3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MK3#0002</v>
       </c>
       <c r="J117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I117)</f>
@@ -27911,7 +27911,7 @@
       </c>
       <c r="I118" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MM3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MM3#0002</v>
       </c>
       <c r="J118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I118)</f>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="I119" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MN3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MN3#0002</v>
       </c>
       <c r="J119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I119)</f>
@@ -27985,7 +27985,7 @@
       </c>
       <c r="I120" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MQ3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MQ3#0002</v>
       </c>
       <c r="J120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I120)</f>
@@ -28022,7 +28022,7 @@
       </c>
       <c r="I121" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MU3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MU3#0002</v>
       </c>
       <c r="J121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I121)</f>
@@ -28059,7 +28059,7 @@
       </c>
       <c r="I122" s="12" t="str">
         <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3M-MxRH_FUT3MV3#0001</v>
+        <v>HKD_YC3M-MxRH_FUT3MV3#0002</v>
       </c>
       <c r="J122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(I122)</f>
@@ -28152,13 +28152,13 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" s="39" t="e">
+      <c r="H2" s="38">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="I2" s="39" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="H3" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G3,$F3,$D3,$E3,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX3#0002</v>
       </c>
       <c r="I3" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -28222,7 +28222,7 @@
       </c>
       <c r="H4" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G4,$F4,$D4,$E4,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ3#0002</v>
       </c>
       <c r="I4" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -28256,7 +28256,7 @@
       </c>
       <c r="H5" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G5,$F5,$D5,$E5,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF4#0002</v>
       </c>
       <c r="I5" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -28290,7 +28290,7 @@
       </c>
       <c r="H6" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G6,$F6,$D6,$E6,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG4#0002</v>
       </c>
       <c r="I6" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -28324,7 +28324,7 @@
       </c>
       <c r="H7" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G7,$F7,$D7,$E7,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH4#0002</v>
       </c>
       <c r="I7" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -28358,7 +28358,7 @@
       </c>
       <c r="H8" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G8,$F8,$D8,$E8,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ4#0002</v>
       </c>
       <c r="I8" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -28392,7 +28392,7 @@
       </c>
       <c r="H9" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G9,$F9,$D9,$E9,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK4#0002</v>
       </c>
       <c r="I9" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -28426,7 +28426,7 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G10,$F10,$D10,$E10,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM4#0002</v>
       </c>
       <c r="I10" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -28460,7 +28460,7 @@
       </c>
       <c r="H11" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G11,$F11,$D11,$E11,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN4#0002</v>
       </c>
       <c r="I11" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -28494,7 +28494,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G12,$F12,$D12,$E12,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ4#0002</v>
       </c>
       <c r="I12" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -28528,7 +28528,7 @@
       </c>
       <c r="H13" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G13,$F13,$D13,$E13,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU4#0002</v>
       </c>
       <c r="I13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -28562,7 +28562,7 @@
       </c>
       <c r="H14" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G14,$F14,$D14,$E14,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV4#0002</v>
       </c>
       <c r="I14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -28596,7 +28596,7 @@
       </c>
       <c r="H15" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G15,$F15,$D15,$E15,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX4#0002</v>
       </c>
       <c r="I15" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="H16" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G16,$F16,$D16,$E16,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ4#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ4#0002</v>
       </c>
       <c r="I16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -28664,7 +28664,7 @@
       </c>
       <c r="H17" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G17,$F17,$D17,$E17,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF5#0002</v>
       </c>
       <c r="I17" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -28698,7 +28698,7 @@
       </c>
       <c r="H18" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G18,$F18,$D18,$E18,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG5#0002</v>
       </c>
       <c r="I18" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -28732,7 +28732,7 @@
       </c>
       <c r="H19" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G19,$F19,$D19,$E19,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH5#0002</v>
       </c>
       <c r="I19" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -28766,7 +28766,7 @@
       </c>
       <c r="H20" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G20,$F20,$D20,$E20,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ5#0002</v>
       </c>
       <c r="I20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -28800,7 +28800,7 @@
       </c>
       <c r="H21" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G21,$F21,$D21,$E21,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK5#0002</v>
       </c>
       <c r="I21" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="H22" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G22,$F22,$D22,$E22,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM5#0002</v>
       </c>
       <c r="I22" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -28868,7 +28868,7 @@
       </c>
       <c r="H23" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G23,$F23,$D23,$E23,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN5#0002</v>
       </c>
       <c r="I23" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -28902,7 +28902,7 @@
       </c>
       <c r="H24" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G24,$F24,$D24,$E24,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ5#0002</v>
       </c>
       <c r="I24" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -28936,7 +28936,7 @@
       </c>
       <c r="H25" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G25,$F25,$D25,$E25,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU5#0002</v>
       </c>
       <c r="I25" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -28970,7 +28970,7 @@
       </c>
       <c r="H26" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G26,$F26,$D26,$E26,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV5#0002</v>
       </c>
       <c r="I26" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H27" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G27,$F27,$D27,$E27,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX5#0002</v>
       </c>
       <c r="I27" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -29038,7 +29038,7 @@
       </c>
       <c r="H28" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G28,$F28,$D28,$E28,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ5#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ5#0002</v>
       </c>
       <c r="I28" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -29072,7 +29072,7 @@
       </c>
       <c r="H29" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G29,$F29,$D29,$E29,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF6#0002</v>
       </c>
       <c r="I29" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -29106,7 +29106,7 @@
       </c>
       <c r="H30" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G30,$F30,$D30,$E30,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG6#0002</v>
       </c>
       <c r="I30" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -29140,7 +29140,7 @@
       </c>
       <c r="H31" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G31,$F31,$D31,$E31,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH6#0002</v>
       </c>
       <c r="I31" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -29174,7 +29174,7 @@
       </c>
       <c r="H32" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G32,$F32,$D32,$E32,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ6#0002</v>
       </c>
       <c r="I32" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="H33" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G33,$F33,$D33,$E33,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK6#0002</v>
       </c>
       <c r="I33" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -29242,7 +29242,7 @@
       </c>
       <c r="H34" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G34,$F34,$D34,$E34,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM6#0002</v>
       </c>
       <c r="I34" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -29276,7 +29276,7 @@
       </c>
       <c r="H35" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G35,$F35,$D35,$E35,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN6#0002</v>
       </c>
       <c r="I35" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -29310,7 +29310,7 @@
       </c>
       <c r="H36" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G36,$F36,$D36,$E36,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ6#0002</v>
       </c>
       <c r="I36" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -29344,7 +29344,7 @@
       </c>
       <c r="H37" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G37,$F37,$D37,$E37,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU6#0002</v>
       </c>
       <c r="I37" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -29378,7 +29378,7 @@
       </c>
       <c r="H38" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G38,$F38,$D38,$E38,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV6#0002</v>
       </c>
       <c r="I38" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -29412,7 +29412,7 @@
       </c>
       <c r="H39" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G39,$F39,$D39,$E39,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX6#0002</v>
       </c>
       <c r="I39" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -29446,7 +29446,7 @@
       </c>
       <c r="H40" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G40,$F40,$D40,$E40,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ6#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ6#0002</v>
       </c>
       <c r="I40" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -29479,7 +29479,7 @@
       </c>
       <c r="H41" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G41,$F41,$D41,$E41,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF7#0002</v>
       </c>
       <c r="I41" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -29512,7 +29512,7 @@
       </c>
       <c r="H42" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G42,$F42,$D42,$E42,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG7#0002</v>
       </c>
       <c r="I42" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -29545,7 +29545,7 @@
       </c>
       <c r="H43" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G43,$F43,$D43,$E43,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH7#0002</v>
       </c>
       <c r="I43" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -29578,7 +29578,7 @@
       </c>
       <c r="H44" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G44,$F44,$D44,$E44,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ7#0002</v>
       </c>
       <c r="I44" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -29611,7 +29611,7 @@
       </c>
       <c r="H45" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G45,$F45,$D45,$E45,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK7#0002</v>
       </c>
       <c r="I45" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H45)</f>
@@ -29644,7 +29644,7 @@
       </c>
       <c r="H46" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G46,$F46,$D46,$E46,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM7#0002</v>
       </c>
       <c r="I46" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H46)</f>
@@ -29677,7 +29677,7 @@
       </c>
       <c r="H47" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G47,$F47,$D47,$E47,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN7#0002</v>
       </c>
       <c r="I47" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H47)</f>
@@ -29710,7 +29710,7 @@
       </c>
       <c r="H48" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G48,$F48,$D48,$E48,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ7#0002</v>
       </c>
       <c r="I48" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H48)</f>
@@ -29743,7 +29743,7 @@
       </c>
       <c r="H49" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G49,$F49,$D49,$E49,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU7#0002</v>
       </c>
       <c r="I49" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H49)</f>
@@ -29776,7 +29776,7 @@
       </c>
       <c r="H50" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G50,$F50,$D50,$E50,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV7#0002</v>
       </c>
       <c r="I50" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H50)</f>
@@ -29809,7 +29809,7 @@
       </c>
       <c r="H51" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G51,$F51,$D51,$E51,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX7#0002</v>
       </c>
       <c r="I51" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H51)</f>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="H52" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G52,$F52,$D52,$E52,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ7#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ7#0002</v>
       </c>
       <c r="I52" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H52)</f>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="H53" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G53,$F53,$D53,$E53,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF8#0002</v>
       </c>
       <c r="I53" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H53)</f>
@@ -29908,7 +29908,7 @@
       </c>
       <c r="H54" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G54,$F54,$D54,$E54,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG8#0002</v>
       </c>
       <c r="I54" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H54)</f>
@@ -29941,7 +29941,7 @@
       </c>
       <c r="H55" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G55,$F55,$D55,$E55,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH8#0002</v>
       </c>
       <c r="I55" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H55)</f>
@@ -29974,7 +29974,7 @@
       </c>
       <c r="H56" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G56,$F56,$D56,$E56,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ8#0002</v>
       </c>
       <c r="I56" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H56)</f>
@@ -30007,7 +30007,7 @@
       </c>
       <c r="H57" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G57,$F57,$D57,$E57,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK8#0002</v>
       </c>
       <c r="I57" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H57)</f>
@@ -30040,7 +30040,7 @@
       </c>
       <c r="H58" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G58,$F58,$D58,$E58,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM8#0002</v>
       </c>
       <c r="I58" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H58)</f>
@@ -30073,7 +30073,7 @@
       </c>
       <c r="H59" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G59,$F59,$D59,$E59,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN8#0002</v>
       </c>
       <c r="I59" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H59)</f>
@@ -30106,7 +30106,7 @@
       </c>
       <c r="H60" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G60,$F60,$D60,$E60,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ8#0002</v>
       </c>
       <c r="I60" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H60)</f>
@@ -30139,7 +30139,7 @@
       </c>
       <c r="H61" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G61,$F61,$D61,$E61,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU8#0002</v>
       </c>
       <c r="I61" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H61)</f>
@@ -30172,7 +30172,7 @@
       </c>
       <c r="H62" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G62,$F62,$D62,$E62,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV8#0002</v>
       </c>
       <c r="I62" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H62)</f>
@@ -30205,7 +30205,7 @@
       </c>
       <c r="H63" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G63,$F63,$D63,$E63,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX8#0002</v>
       </c>
       <c r="I63" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H63)</f>
@@ -30238,7 +30238,7 @@
       </c>
       <c r="H64" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G64,$F64,$D64,$E64,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ8#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ8#0002</v>
       </c>
       <c r="I64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H64)</f>
@@ -30271,7 +30271,7 @@
       </c>
       <c r="H65" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G65,$F65,$D65,$E65,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF9#0002</v>
       </c>
       <c r="I65" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H65)</f>
@@ -30304,7 +30304,7 @@
       </c>
       <c r="H66" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G66,$F66,$D66,$E66,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG9#0002</v>
       </c>
       <c r="I66" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H66)</f>
@@ -30337,7 +30337,7 @@
       </c>
       <c r="H67" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G67,$F67,$D67,$E67,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH9#0002</v>
       </c>
       <c r="I67" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H67)</f>
@@ -30370,7 +30370,7 @@
       </c>
       <c r="H68" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G68,$F68,$D68,$E68,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ9#0002</v>
       </c>
       <c r="I68" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H68)</f>
@@ -30403,7 +30403,7 @@
       </c>
       <c r="H69" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G69,$F69,$D69,$E69,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK9#0002</v>
       </c>
       <c r="I69" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H69)</f>
@@ -30436,7 +30436,7 @@
       </c>
       <c r="H70" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G70,$F70,$D70,$E70,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM9#0002</v>
       </c>
       <c r="I70" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H70)</f>
@@ -30469,7 +30469,7 @@
       </c>
       <c r="H71" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G71,$F71,$D71,$E71,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN9#0002</v>
       </c>
       <c r="I71" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H71)</f>
@@ -30502,7 +30502,7 @@
       </c>
       <c r="H72" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G72,$F72,$D72,$E72,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ9#0002</v>
       </c>
       <c r="I72" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H72)</f>
@@ -30535,7 +30535,7 @@
       </c>
       <c r="H73" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G73,$F73,$D73,$E73,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU9#0002</v>
       </c>
       <c r="I73" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H73)</f>
@@ -30568,7 +30568,7 @@
       </c>
       <c r="H74" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G74,$F74,$D74,$E74,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV9#0002</v>
       </c>
       <c r="I74" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H74)</f>
@@ -30601,7 +30601,7 @@
       </c>
       <c r="H75" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G75,$F75,$D75,$E75,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX9#0002</v>
       </c>
       <c r="I75" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H75)</f>
@@ -30634,7 +30634,7 @@
       </c>
       <c r="H76" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G76,$F76,$D76,$E76,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ9#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ9#0002</v>
       </c>
       <c r="I76" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H76)</f>
@@ -30667,7 +30667,7 @@
       </c>
       <c r="H77" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G77,$F77,$D77,$E77,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF0#0002</v>
       </c>
       <c r="I77" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H77)</f>
@@ -30700,7 +30700,7 @@
       </c>
       <c r="H78" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G78,$F78,$D78,$E78,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG0#0002</v>
       </c>
       <c r="I78" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H78)</f>
@@ -30733,7 +30733,7 @@
       </c>
       <c r="H79" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G79,$F79,$D79,$E79,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH0#0002</v>
       </c>
       <c r="I79" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H79)</f>
@@ -30766,7 +30766,7 @@
       </c>
       <c r="H80" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G80,$F80,$D80,$E80,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ0#0002</v>
       </c>
       <c r="I80" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H80)</f>
@@ -30799,7 +30799,7 @@
       </c>
       <c r="H81" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G81,$F81,$D81,$E81,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK0#0002</v>
       </c>
       <c r="I81" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H81)</f>
@@ -30832,7 +30832,7 @@
       </c>
       <c r="H82" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G82,$F82,$D82,$E82,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM0#0002</v>
       </c>
       <c r="I82" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H82)</f>
@@ -30865,7 +30865,7 @@
       </c>
       <c r="H83" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G83,$F83,$D83,$E83,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN0#0002</v>
       </c>
       <c r="I83" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H83)</f>
@@ -30898,7 +30898,7 @@
       </c>
       <c r="H84" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G84,$F84,$D84,$E84,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ0#0002</v>
       </c>
       <c r="I84" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H84)</f>
@@ -30931,7 +30931,7 @@
       </c>
       <c r="H85" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G85,$F85,$D85,$E85,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU0#0002</v>
       </c>
       <c r="I85" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H85)</f>
@@ -30964,7 +30964,7 @@
       </c>
       <c r="H86" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G86,$F86,$D86,$E86,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV0#0002</v>
       </c>
       <c r="I86" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H86)</f>
@@ -30997,7 +30997,7 @@
       </c>
       <c r="H87" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G87,$F87,$D87,$E87,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX0#0002</v>
       </c>
       <c r="I87" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H87)</f>
@@ -31030,7 +31030,7 @@
       </c>
       <c r="H88" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G88,$F88,$D88,$E88,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ0#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ0#0002</v>
       </c>
       <c r="I88" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H88)</f>
@@ -31063,7 +31063,7 @@
       </c>
       <c r="H89" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G89,$F89,$D89,$E89,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF1#0002</v>
       </c>
       <c r="I89" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H89)</f>
@@ -31096,7 +31096,7 @@
       </c>
       <c r="H90" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G90,$F90,$D90,$E90,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG1#0002</v>
       </c>
       <c r="I90" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H90)</f>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="H91" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G91,$F91,$D91,$E91,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH1#0002</v>
       </c>
       <c r="I91" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H91)</f>
@@ -31162,7 +31162,7 @@
       </c>
       <c r="H92" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G92,$F92,$D92,$E92,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ1#0002</v>
       </c>
       <c r="I92" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H92)</f>
@@ -31195,7 +31195,7 @@
       </c>
       <c r="H93" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G93,$F93,$D93,$E93,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK1#0002</v>
       </c>
       <c r="I93" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H93)</f>
@@ -31228,7 +31228,7 @@
       </c>
       <c r="H94" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G94,$F94,$D94,$E94,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM1#0002</v>
       </c>
       <c r="I94" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H94)</f>
@@ -31261,7 +31261,7 @@
       </c>
       <c r="H95" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G95,$F95,$D95,$E95,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN1#0002</v>
       </c>
       <c r="I95" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H95)</f>
@@ -31294,7 +31294,7 @@
       </c>
       <c r="H96" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G96,$F96,$D96,$E96,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ1#0002</v>
       </c>
       <c r="I96" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H96)</f>
@@ -31327,7 +31327,7 @@
       </c>
       <c r="H97" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G97,$F97,$D97,$E97,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU1#0002</v>
       </c>
       <c r="I97" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H97)</f>
@@ -31360,7 +31360,7 @@
       </c>
       <c r="H98" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G98,$F98,$D98,$E98,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV1#0002</v>
       </c>
       <c r="I98" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H98)</f>
@@ -31393,7 +31393,7 @@
       </c>
       <c r="H99" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G99,$F99,$D99,$E99,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX1#0002</v>
       </c>
       <c r="I99" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H99)</f>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="H100" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G100,$F100,$D100,$E100,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ1#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ1#0002</v>
       </c>
       <c r="I100" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H100)</f>
@@ -31459,7 +31459,7 @@
       </c>
       <c r="H101" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G101,$F101,$D101,$E101,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF2#0002</v>
       </c>
       <c r="I101" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H101)</f>
@@ -31492,7 +31492,7 @@
       </c>
       <c r="H102" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G102,$F102,$D102,$E102,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG2#0002</v>
       </c>
       <c r="I102" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H102)</f>
@@ -31525,7 +31525,7 @@
       </c>
       <c r="H103" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G103,$F103,$D103,$E103,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH2#0002</v>
       </c>
       <c r="I103" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H103)</f>
@@ -31558,7 +31558,7 @@
       </c>
       <c r="H104" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G104,$F104,$D104,$E104,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ2#0002</v>
       </c>
       <c r="I104" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H104)</f>
@@ -31591,7 +31591,7 @@
       </c>
       <c r="H105" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G105,$F105,$D105,$E105,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK2#0002</v>
       </c>
       <c r="I105" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H105)</f>
@@ -31624,7 +31624,7 @@
       </c>
       <c r="H106" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G106,$F106,$D106,$E106,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM2#0002</v>
       </c>
       <c r="I106" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H106)</f>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="H107" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G107,$F107,$D107,$E107,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN2#0002</v>
       </c>
       <c r="I107" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H107)</f>
@@ -31690,7 +31690,7 @@
       </c>
       <c r="H108" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G108,$F108,$D108,$E108,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ2#0002</v>
       </c>
       <c r="I108" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H108)</f>
@@ -31723,7 +31723,7 @@
       </c>
       <c r="H109" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G109,$F109,$D109,$E109,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU2#0002</v>
       </c>
       <c r="I109" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H109)</f>
@@ -31756,7 +31756,7 @@
       </c>
       <c r="H110" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G110,$F110,$D110,$E110,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV2#0002</v>
       </c>
       <c r="I110" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H110)</f>
@@ -31789,7 +31789,7 @@
       </c>
       <c r="H111" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G111,$F111,$D111,$E111,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MX2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MX2#0002</v>
       </c>
       <c r="I111" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H111)</f>
@@ -31822,7 +31822,7 @@
       </c>
       <c r="H112" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G112,$F112,$D112,$E112,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MZ2#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MZ2#0002</v>
       </c>
       <c r="I112" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H112)</f>
@@ -31855,7 +31855,7 @@
       </c>
       <c r="H113" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G113,$F113,$D113,$E113,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MF3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MF3#0002</v>
       </c>
       <c r="I113" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H113)</f>
@@ -31888,7 +31888,7 @@
       </c>
       <c r="H114" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G114,$F114,$D114,$E114,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MG3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MG3#0002</v>
       </c>
       <c r="I114" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H114)</f>
@@ -31921,7 +31921,7 @@
       </c>
       <c r="H115" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G115,$F115,$D115,$E115,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MH3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MH3#0002</v>
       </c>
       <c r="I115" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H115)</f>
@@ -31954,7 +31954,7 @@
       </c>
       <c r="H116" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G116,$F116,$D116,$E116,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MJ3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MJ3#0002</v>
       </c>
       <c r="I116" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H116)</f>
@@ -31987,7 +31987,7 @@
       </c>
       <c r="H117" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G117,$F117,$D117,$E117,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MK3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MK3#0002</v>
       </c>
       <c r="I117" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H117)</f>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="H118" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G118,$F118,$D118,$E118,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MM3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MM3#0002</v>
       </c>
       <c r="I118" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H118)</f>
@@ -32053,7 +32053,7 @@
       </c>
       <c r="H119" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G119,$F119,$D119,$E119,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MN3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MN3#0002</v>
       </c>
       <c r="I119" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H119)</f>
@@ -32086,7 +32086,7 @@
       </c>
       <c r="H120" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G120,$F120,$D120,$E120,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MQ3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MQ3#0002</v>
       </c>
       <c r="I120" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H120)</f>
@@ -32119,7 +32119,7 @@
       </c>
       <c r="H121" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G121,$F121,$D121,$E121,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MU3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MU3#0002</v>
       </c>
       <c r="I121" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H121)</f>
@@ -32152,7 +32152,7 @@
       </c>
       <c r="H122" s="14" t="str">
         <f>_xll.qlFuturesRateHelper(G122,$F122,$D122,$E122,0,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6M-MxRH_IMMFRA6MV3#0001</v>
+        <v>HKD_YC6M-MxRH_IMMFRA6MV3#0002</v>
       </c>
       <c r="I122" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(H122)</f>
